--- a/data/source_file.xlsx
+++ b/data/source_file.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mukeshkr\Desktop\DefenseExtraction\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mukeshkr\Agentic-AI-Defense-Data-Extraction\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94B2F740-D2FA-41FE-8DC9-3347711234D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D80390F9-F97D-4122-AC78-26C9A56B3B7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1789C02F-0F05-431D-B1D8-FBD75DE85A9F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1789C02F-0F05-431D-B1D8-FBD75DE85A9F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="39">
   <si>
     <t>Source URL</t>
   </si>
@@ -47,10 +47,112 @@
     <t>Contract Description</t>
   </si>
   <si>
+    <t>BAE Systems - Norfolk Ship Repair, Norfolk, Virginia, is awarded a $107,736,087, firm-fixed-price contract for the execution of the USS Ross (DDG 71) fiscal 2023 extended dry-docking selected restricted availability. This availability will include a combination of maintenance, modernization and repair of the USS Ross. This contract includes options which, if exercised, would bring the cumulative value of this contract to $123,876,183. Work will be performed in Norfolk, Virginia, and is expected to be completed by March 2024. Fiscal 2022 operations and maintenance (Navy) funds in the amount of $93,897,036 (87%); and fiscal 2022 other procurement (Navy) funds in the amount of $13,839,051 (13%) will be obligated at time of award, of which $93,897,036 will expire at the end of the current fiscal year. This contract was competitively procured using full and open competition via the System for Award Management website. Competitive proposals were received in response to Solicitation Number (N00024-22-R-4422). The Naval Sea Systems Command, Washington, D.C., is the contracting activity (N00024-22-C-4422).</t>
+  </si>
+  <si>
+    <t>The Boeing Co., St. Louis, Missouri, is awarded a $25,648,020 fixed-firm-price, cost-plus-fixed-fee and cost-only, full rate production contract for the production of High-Altitude Anti-Submarine Warfare Weapon Capability Air Launch Accessory equipment, related engineering and hardware repair services, and other direct cost support. This contract includes options, which, if exercised, would bring the cumulative value of this contract to $121,426,700. Work will be performed in St. Charles, Missouri (44%); St. Louis, Missouri (26%); Salt Lake City, Utah (12%); Minneapolis, Minnesota (4%); Joplin, Missouri (2%),; Piedmont, Missouri (2%); Orlando, Florida (2%); Cedar Rapids, Iowa (2%); Chandler, Arizona (1%); Berea, Ohio (1%); Wichita, Kansas (1%); Albuquerque, New Mexico (1%); Lexington, Kentucky, (1%); and Chatsworth, California (1%), and is expected to be completed by September 2024. If all options are exercised, work will continue through September 2030. Fiscal 2020 weapons procurement (Navy) funds in the amount of $11,535,520 (98%); and fiscal 2021 weapons procurement (Navy) funds in the amount of $279,074 (2%) funding will be obligated at time of award, of which $11,535,520 will expire at the end of the current fiscal year. This contract was not competitively procured in accordance with 10 U.S. Code 2304(c) (1) — only one responsible source and no other supplies or services will satisfy agency requirements. The Naval Sea Systems Command, Washington, D.C., is the contracting activity (N00024-22-C-6407).</t>
+  </si>
+  <si>
+    <t>Intermat,* Biddeford, Maine, is awarded a $17,736,279 firm-fixed-price, cost-plus-fixed-fee, and cost-only indefinite-delivery/indefinite-quantity contract for the delivery of Submarine Launched Ballistic Missile nose-tip materials. This contract does not include options. This contract combines purchases for the Navy (82.23%) and the government of the United Kingdom (17.77%) under the Foreign Military Sales program. Work will be performed in Biddeford, Maine, and is expected to be completed by July 2027. Fiscal 2022 Weapons Procurement (Navy) funds in the amount of $1,301,611 will be obligated at time of award. This contract was not competitively procured in accordance with 10 U.S. Code 2304(c)(1) [now 10 U.S. Code 3204(a)(1)] — only one responsible source and no other type of supplies or services will satisfy agency requirements. The Naval Surface Warfare Center Dahlgren Division, Dahlgren, Virginia, is the contracting activity (N0017822D4404).</t>
+  </si>
+  <si>
+    <t>Raytheon Co., Tewksbury, Massachusetts, is awarded an $11,172,229 firm-fixed-price modification to previously awarded contract N00024-22-C-5522 for Total Ship Computing Environment Lab hardware for modernization/technical refresh and Conventional Prompt Strike to support DDG 1000-class combat system activation, sustainment and modernization.  Work will be performed in Nashua, New Hampshire (92%); Portsmouth, Rhode Island (4%); and  Tewksbury, Massachusetts (4%), and is expected to be completed by November 2023. Fiscal 2022 other procurement (Navy) funds in the amount of $9,333,203 (84%); and fiscal 2022 research, development, test and evaluation (Navy) funds in the amount of $1,839,026 (16%) will be obligated at time of award and will not expire at the end of the current fiscal year. The Naval Sea Systems Command, Washington, D.C., is the contracting activity.</t>
+  </si>
+  <si>
+    <t>General Atomics, San Diego, California, is awarded an $8,837,078 firm-fixed-price order (N0001922F2258) against a previously issued basic ordering agreement (N0001921G0014). This order provides for the development of a two or three launch motor subsystem, two energy storage group tailored configuration of the Electromagnetic Aircraft Launch System (EMALS) and a three wire, six energy absorber subsystem Advanced Arresting Gear System configuration that are compatible with the government of France’s future aircraft carrier and provides acceptable mission capability. Work will be performed in San Diego, California (98.85%); and Tupelo, Mississippi (1.15%), and is expected to be completed in June 2023. Foreign Military Sales customer funds in the amount of $8,837,078 will be obligated at the time of award, none of which will expire at the end of the current fiscal year. The Naval Air Systems Command, Patuxent River, Maryland, is the contracting activity.</t>
+  </si>
+  <si>
+    <t>The Johns Hopkins University Applied Physics Laboratory, Laurel, Maryland, is awarded a $4,396,000,000 cost-plus-fixed-fee, indefinite-delivery/indefinite-quantity contract for research, development, engineering, and test and evaluation for programs throughout the Department of Defense within its core competency areas including strategic systems test and evaluation; submarine security and survivability; space science and engineering; combat systems and guided missiles; air and missile defense and power projection; information technology, simulation, modeling, and operations analysis; and mission related research, development, test and evaluation. This contract includes options which, if exercised, would bring the cumulative value of this contract to $10,600,000,000. Work will be performed in Laurel, Maryland, and is expected to be completed by August 2027. If all options are exercised, work will continue through August 2032. Fiscal 2022 research, development, test and evaluation (Navy) funds in the amount of $6,803,376 will be obligated at time of award and will not expire at the end of the current fiscal year. This contract was not competitively procured in accordance with 10 U.S. Code 2304(c)(3)(B), as implemented in Defense Federal Acquisition Regulation 6.302-3 — industrial mobilization; engineering, developmental, or research capability; or expert services. The Naval Sea Systems Command, Washington, D.C., is the contracting activity (N00024-22-D-6404).</t>
+  </si>
+  <si>
+    <t>BAE Systems Land &amp; Armaments L.P., Sterling Heights, Michigan, was awarded a $278,182,786 firm-fixed-price contract for production units, spare parts and contractor logistics support for the Cold Weather All-Terrain Vehicle. Bids were solicited via the internet with two received. Work locations and funding will be determined with each order, with an estimated completion date of Aug. 19, 2029. U.S. Army Contracting Command, Detroit Arsenal, Michigan, is the contracting activity (W56HZV-22-D-0082).</t>
+  </si>
+  <si>
+    <t>Day and Zimmermann Inc., Parsons, Kansas (W52P1J-22-D-0031); and General Dynamics Ordnance and Tactical Systems Canada Inc., Repentigny, Quebec, Canada (W52P1J-22-D-0032), will compete for each order of the $372,589,589 firm-fixed-price contract to load, assemble and package high-explosive mortar cartridges. Bids were solicited via the internet with three received. Work locations and funding will be determined with each order, with an estimated completion date of Aug. 18, 2027. U.S. Army Contracting Command, Rock Island Arsenal, Illinois, is the contracting activity.</t>
+  </si>
+  <si>
+    <t>Oshkosh Defense LLC, Oshkosh, Wisconsin, was awarded a $22,639,245 modification (P00315) to contract W56HZV-20-C-0050 to exercise available options to support the fielding of Joint Light Tactical Vehicles, packaged and installed kits, and trailers. Work will be performed in Oshkosh, Wisconsin, with an estimated completion date of Sept. 30, 2024. Fiscal 2020 other procurement, Army funds and fiscal 2020 and 2022 Marine Corps procurement funds in the amount of $22,639,245 were obligated at the time of the award. U.S. Army Contracting Command, Detroit Arsenal, Michigan, is the contracting activity.</t>
+  </si>
+  <si>
+    <t>Advanced Systems and Software Engineering Technologies LLC,* Ridgecrest, California, is awarded a $292,310,598 cost-plus-fixed-fee, cost reimbursable, indefinite-delivery/indefinite-quantity contract. This contract provides system engineering, analysis, research, development, logistics, configuration and data management services in support of the Naval Air Warfare Center Weapons Division’s aircraft integrated product teams for the development, integration, test, evaluation, and fielding of new and upgraded capabilities to Navy aircraft, to include F/A-18, EA-18G, F-35, AV-8B, AH-1/UH-1 aircraft and unmanned aerial systems. Work will be performed in China Lake, California (86.5%); Eglin Air Force Base, Florida (7%); Ridgecrest, California (5%); Point Mugu, California (1%); and various locations within the continental U.S. (0.5%), and is expected to be completed in October 2027. No funds will be obligated at the time of award; funds will be obligated on individual orders as they are issued.  This contract was competitively procured as a small business set-aside; three offers were received. The Naval Air Warfare Center Weapons Division, China Lake, California, is the contracting activity (N6893622D0038).</t>
+  </si>
+  <si>
+    <t>Lockheed Martin Rotary and Mission Systems, Manassas, Virginia, is awarded a $78,423,685 cost-plus-incentive-fee and cost reimbursement contract modification to previously awarded contract N00024-17-C-6259 to exercise options for engineering design and development.  Work will be performed in Manassas, Virginia (65%); Clearwater, Florida (32%); Syracuse, New York (2%); and Marion, Florida (1%), and is expected to be completed by December 2023. Fiscal 2022 other procurement (Navy) funds in the amount of $58,919 will be obligated at time of award, and will not expire at the end of the current fiscal year. The Naval Sea Systems Command, Washington Navy Yard, Washington, D.C., is the contracting activity.</t>
+  </si>
+  <si>
+    <t>Lockheed Martin Corp., Rotary and Mission Systems, Moorestown, New Jersey, is awarded a $13,542,835 cost-plus-incentive-fee modification to previously awarded contract N00024-13-C-5116 for AEGIS combat system engineering agent efforts, which include the design, development, integration, test and delivery of Advanced Capability Build 20. Work will be performed in Moorestown, New Jersey, and is expected to be completed by May 2023. Fiscal 2019 shipbuilding and conversion (Navy) funds in the amount of $7,220,634 (53%); fiscal 2018 shipbuilding and conversion (Navy) funds in the amount of $5,883,043 (44%); and fiscal 2021 shipbuilding and conversion (Navy) funds in the amount of $439,158 (3%) will be obligated at time of award and do not expire at the end of the current fiscal year. The Naval Sea Systems Command, Washington, D.C., is the contracting activity.</t>
+  </si>
+  <si>
+    <t>AM General LLC, South Bend, Indiana, was awarded a $732,741,016 modification (P00042) to contract W56HZV-17-D-0071 for production of High Mobility Multipurpose Wheeled Vehicle Expanded Capacity Vehicle variants. Bids were solicited via the internet with one received. Work locations and funding will be determined with each order, with an estimated completion date of Dec. 31, 2024. U.S. Army Contracting Command, Detroit Arsenal, Michigan, is the contracting activity. (Awarded Aug. 19, 2022)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAE Systems Land &amp; Armaments L.P., York, Pennsylvania, was awarded a $49,689,943 cost-no-fee contract for Bradley Fighting Vehicles. Bids were solicited via the internet with one received. Work will be performed in York, Pennsylvania, with an estimated completion date of Aug. 23, 2023. Fiscal 2022 weapons and tracked combat vehicle procurement, Army funds in the amount of $49,689,943 were obligated at the time of the award. U.S. Army Contracting Command, Detroit Arsenal, Michigan, is the contracting activity (W56HZV-22-F-0413). </t>
+  </si>
+  <si>
+    <t>Charles Reed Knight Jr., doing business as Knight's Armament Co.,* Titusville, Florida, was awarded a $14,998,849 modification (P00004) to contract W15QKN-20-D-0044 for the M110 Semi-Automatic Sniper System and various M110 configurations. Bids were solicited via the internet with one received. Work locations and funding will be determined with each order, with an estimated completion date of Sept. 25, 2025. U.S. Army Contracting Command, Newark, New Jersey, is the contracting activity.</t>
+  </si>
+  <si>
+    <t>L-3 Communication Integrated Systems L.P., Greenville, Texas, has been awarded a $96,538,833 cost-plus-fixed-fee and firm-fixed-price contract action for the procurement and fabrication of Group B Ground and System Integration Lab material. Work will be performed in Greenville, Texas, and is expected be complete by June 30, 2024. This contract involved 100% foreign military sales. This award is the result of a sole source acquisition. Foreign Military Sales funds in the amount of $96,538,833 are being obligated at the time of award. The 645th Aeronautical Systems Group, Wright-Patterson Air Force Base, Ohio, is the contracting activity (FA8620-21-G-4027 / FA8620-22-F-4831).</t>
+  </si>
+  <si>
+    <t>Dyncorp International LLC, Fort Worth, Texas, is awarded a $30,268,759 firm-fixed-price, cost-plus-fixed-fee, cost reimbursable modification (P00071) to a previously awarded contract (N6893617C0052). This modification exercises an option to extend services to provide continued organizational level aircraft maintenance and logistics support for aircrew systems and subsystems, search and rescue equipment, and support equipment for the P-3 Orion, C-130 Hercules, F/A-18 Hornet, E/A-18 Growler, AV-8B Harrier II, H-60 Seahawk, and E-2D Hawkeye aircraft in support of the Naval Air Warfare Center Weapons Division (NAWCWD) Naval Test Wing Pacific. Work will be performed in China Lake, California (60%); Point Mugu, California (30 %); Hickam Air Force Base, Hawaii (2%); Lemoore, California (2%); Patrick AFB, Florida (1%); Holloman AFB, New Mexico (1%); Patuxent River, Maryland, (1%); Yuma, Arizona (1%); Miramar, California (1%); and North Island, California (1%), and is expected to be completed in April 2023. Working capital (Navy) funds in the amount of $10,113,024 will be obligated at time of award, none of which will expire at the end of the current fiscal year. The NAWCWD, Point Mugu, California, is the contracting activity.</t>
+  </si>
+  <si>
+    <t>Grove U.S. LLC, Shady Grove, Pennsylvania, has been awarded a maximum $266,866,453 fixed-price with economic-price-adjustment, indefinite-delivery requirements contract for commercial cranes. This was a competitive acquisition with one response received. This is a five-year contract with no option periods. Other contracts are expected to be awarded under this solicitation (SPE8EC-21-R-0003) and awardees will compete for a portion of the maximum dollar value. The ordering period end date is Aug. 23, 2027. Using military services are Army, Navy and Marine Corps. Type of appropriation is fiscal 2022 through 2027 defense working capital funds. The contracting activity is the Defense Logistics Agency Troop Support, Philadelphia, Pennsylvania (SPE8EC-22-D-0011).</t>
+  </si>
+  <si>
+    <t>General Dynamics Land Systems Inc., Sterling Heights, Michigan, was awarded a $25,999,349 modification (P00015) to contract W56HZV-22-C-0012 for Abrams systems technical support. Work will be performed in Sterling Heights, Michigan, with an estimated completion date of Sept. 30, 2025. Fiscal 2020 other procurement, Army funds in the amount of $25,999,349 were obligated at the time of the award. U.S. Army Contracting Command, Detroit Arsenal, Michigan, is the contracting activity.</t>
+  </si>
+  <si>
+    <t>Raytheon Co., Poulsbo, Washington, is awarded an $18,543,264 cost-plus-fixed-fee and firm-fixed-price, indefinite delivery/indefinite-quantity requirements contract for depot-level support, maintenance and modifications support of the AN/AQS-20 Sonar Mine Detecting Set, and the AN/MHP-20 Deploy and Retrieve system for the AN/AQS-20 System. The AN/AQS-20 is a towed, mine hunting and identification system for Program Executive Office, Unmanned and Small Combatants. This contract includes options which, if exercised, would bring the cumulative value of this contract to $91,706,089. Work will be performed in Portsmouth, Rhode Island (65%); Poulsbo, Washington (30%); and Panama City, Florida (5%); and is expected to be completed by August 2023. If all options are exercised, work will continue through August 2027. No funding will be obligated at time of award. This contract was not competitively procured in accordance with Defense Federal Acquisition Regulation 6.302-1(a)(2)(ii) and (iii) – circumstances permitting other than full and open competition when only one source and no supplies or services will satisfy agency requirements. Naval Surface Warfare Center, Panama City Division, Panama City, Florida, is the contracting activity (N6133122D0004).</t>
+  </si>
+  <si>
+    <t>ATAP Inc., Eastaboga, Alabama (FA8517-22-D-0009); Boneal Inc., Means, Kentucky (FA8517-22-D-0012); and F3 Logistics LLC, Warner Robins, Georgia (FA8517-22-D-0013), have been awarded a multiple award, small business set-aside contract ceiling of $533,500,000 for the sourcing of support equipment (SE) with a unit price of $50,000, or less. This contract provides for the sourcing, acquiring, and delivery of a broad range of ground and aircraft SE items. Work will be performed at various locations, and is expected to be complete by Aug. 25, 2032. This contract involves Army, Navy and Foreign Military Sales to be determined as needed on individual delivery orders. This award is the result of a competitive acquisition with one solicitation posted to sam.gov and nine offers were received. Fiscal 2020 Air Force procurement funds in the amount of $13,646; and fiscal 2021 Air Force procurement funds in the amount of $16,597 are being obligated at the time of award. Air Force Sustainment Center, Robins Air Force Base, Georgia, is the contract activity.</t>
+  </si>
+  <si>
+    <t>Altamira Technologies Corp., McLean, Virginia, has been awarded a $280,000,000 modification (P00029) to a previously awarded, cost-plus-fixed-fee, firm-fixed-price, and cost-plus-incentive-fee, multiple award, indefinite-delivery/indefinite-quantity contract (FA8604-15-D-7977). The contract provides for Advanced Technical Exploitation Program II support for geospatial intelligence (GEOINT) research and development; and measurement and signature intelligence (MASINT) research and development; GEOINT and MASINT operational production support; and other mission areas. Work will be performed at the National Air and Space Intelligence Center, Wright-Patterson Air Force Base, Ohio, and other locations, and is expected to be completed by Oct. 2, 2024. The contract modification provides for an increase to the overall ceiling of the contract; and an extension of the ordering period by one year. This modification increases the estimated contract value from $960,000,000 to $1,240,000,000. Total cumulative face value of the contract is $1,240,000,000. No funds will be obligated at the time of award. Air Force Life Cycle Management Center, Wright-Patterson AFB, Ohio, is the contracting activity.</t>
+  </si>
+  <si>
+    <t>Radiance Technologies, Huntsville, Alabama, has been awarded a $280,000,000 modification (P00025) to a previously awarded, cost-plus-fixed-fee, firm-fixed-price, and cost-plus-incentive-fee, multiple award, indefinite-delivery/indefinite-quantity contract (FA8604-15-D-7976). The contract provides for Advanced Technical Exploitation Program II support for geospatial intelligence (GEOINT) research and development; and measurement and signature intelligence (MASINT) research and development; GEOINT and MASINT operational production support; and other mission areas. Work will be performed at the National Air and Space Intelligence Center, Wright-Patterson Air Force Base, Ohio, and other locations,  and is expected to be completed by Oct. 2, 2024. The contract modification provides for an increase to the overall ceiling of the contract; and an extension of the ordering period by one year. This modification increases the estimated contract value from $960,000,000 to $1,240,000,000. Total cumulative face value of the contract is $1,240,000,000. No funds will be obligated at the time of award. Air Force Life Cycle Management Center, Wright-Patterson AFB, Ohio, is the contracting activity.</t>
+  </si>
+  <si>
+    <t>Centauri LLC, Chantilly, Virginia, has been awarded a $280,000,000 modification (P00031) to a previously awarded, cost-plus-fixed-fee, firm-fixed-price, and cost-plus-incentive-fee, multiple award, indefinite-delivery/indefinite-quantity contract (FA8604-15-D-7975). The contract provides for Advanced Technical Exploitation Program II support for geospatial intelligence (GEOINT) research and development; and measurement and signature intelligence (MASINT) research and development; GEOINT and MASINT operational production support; and other mission areas. Work will be performed at the National Air and Space Intelligence Center, Wright-Patterson Air Force Base, Ohio, and other locations, and is expected to be completed by Oct. 2, 2024. The contract modification provides for an increase to the overall ceiling of the contract; and an extension of the ordering period by one year. This modification increases the estimated contract value from $960,000,000 to $1,240,000,000. Total cumulative face value of the contract is $1,240,000,000. No funds will be obligated at the time of award. Air Force Life Cycle Management Center, Wright-Patterson AFB, Ohio, is the contracting activity.</t>
+  </si>
+  <si>
+    <t>Lockheed Martin Corp., Orlando, Florida, has been awarded a $15,000,000 firm-fixed-price contract for Stand-in Attack Weapon Phase 1.2. This contract provides for all activities associated with the statement of objectives as well as the contractor's proposal for Phase 1.2. Work will be performed in Orlando, Florida, and is expected to be complete by Feb. 25, 2023. This award is the result of a sole source acquisition. Fiscal 2022 Air Force research and development funds in the amount of $15,000,000 are being obligated at the time of award. Air Force Life Cycle Management Center, Eglin Air Force Base, Florida, is the contracting activity (FA8656-22-F-1036).</t>
+  </si>
+  <si>
+    <t>Northrop Grumman Systems Corp., Northridge, California, has been awarded a $15,000,000 firm-fixed-price contract for Stand-in Attack Weapon Phase 1.2. This contract provides for all activities associated with the statement of objectives as well as the contractor's proposal for Phase 1.2. Work will be performed in Northridge, California, and is expected to be complete by Feb. 25, 2023. This award is the result of a sole source acquisition. Fiscal 2022 Air Force research and development funds in the amount of $15,000,000 are being obligated at the time of award. Air Force Life Cycle Management Center, Eglin Air Force Base, Florida, is the contracting activity (FA8656-22-F-1051).</t>
+  </si>
+  <si>
+    <t>L3Harris Mustang Technology Group LP, Plano, Texas, has been awarded a $14,579,829 firm-fixed-price contract for Stand-in Attack Weapon Phase 1.2. This contract provides for all activities associated with the statement of objectives as well as the contractor's proposal for Phase 1.2. Work will be performed in Plano, Texas, and is expected to be complete by Feb. 25, 2023. This award is the result of a sole source acquisition. Fiscal 2022 Air Force research and development funds in the amount of $14,579,829 are being obligated at the time of award. Air Force Life Cycle Management Center, Eglin Air Force Base, Florida, is the contracting activity (FA8656-22-F-1031).</t>
+  </si>
+  <si>
+    <t>Raytheon Missiles and Defense, Tucson, Arizona, has been awarded a non-competitive, firm-fixed-price modification (P00021) to previously awarded contract (FA8675-21-C-0034) in the amount of $8,837,522 for Advanced Medium Range Air-to-Air Missile Production Lot 35 Rectifier Filter Assembly Captive Air Training Missile Retrofit effort. Work will be performed in Tucson, Arizona, and is expected to be completed by May 30, 2026. Fiscal 2021 Air Force missile procurement funds in the amount of $4,485,281; fiscal 2021 Navy weapons procurement funds in the amount of $3,865,690; and Foreign Military Sales funds in the amount of $486,551 are being obligated at the time of award. Air Force Life Cycle Management Center, Air Dominance Division Contracting Office, Eglin Air Force Base, Florida, is the contracting activity.</t>
+  </si>
+  <si>
+    <t>Raytheon Co., Tewksbury, Massachusetts, was awarded a $182,295,333 firm-fixed-price contract for the procurement of National Advanced Surface-to-Air Missile Systems. Bids were solicited via the internet with one received. Work will be performed in Tewksbury, Massachusetts, with an estimated completion date of Aug. 23, 2024. Fiscal 2022 Ukraine Security Assistance Initiative funds in the amount of $182,295,333 were obligated at the time of the award. U.S. Army Contracting Command, Redstone Arsenal, Alabama, is the contracting activity (W31P4Q-22-C-0068).</t>
+  </si>
+  <si>
+    <t>MORSECORP Inc., Cambridge, Massachusetts, was awarded a $44,890,537 firm-fixed-price contract for advanced test and evaluation of artificial intelligence and machine learning progress algorithms. Bids were solicited via the internet with 999 received. Work will be performed in Cambridge, Massachusetts, with an estimated completion date of Aug. 31, 2025. Fiscal 2022 research, development, test, and evaluation, Army funds in the amount of $3,195,693 were obligated at the time of the award. U.S. Army Contracting Command, Aberdeen Proving Ground, Maryland, is the contracting activity (W911QX-22-C-0029).</t>
+  </si>
+  <si>
     <t>https://www.war.gov/News/Contracts/Contract/Article/3134553/</t>
   </si>
   <si>
-    <t>BAE Systems - Norfolk Ship Repair, Norfolk, Virginia, is awarded a $107,736,087, firm-fixed-price contract for the execution of the USS Ross (DDG 71) fiscal 2023 extended dry-docking selected restricted availability. This availability will include a combination of maintenance, modernization and repair of the USS Ross. This contract includes options which, if exercised, would bring the cumulative value of this contract to $123,876,183. Work will be performed in Norfolk, Virginia, and is expected to be completed by March 2024. Fiscal 2022 operations and maintenance (Navy) funds in the amount of $93,897,036 (87%); and fiscal 2022 other procurement (Navy) funds in the amount of $13,839,051 (13%) will be obligated at time of award, of which $93,897,036 will expire at the end of the current fiscal year. This contract was competitively procured using full and open competition via the System for Award Management website. Competitive proposals were received in response to Solicitation Number (N00024-22-R-4422). The Naval Sea Systems Command, Washington, D.C., is the contracting activity (N00024-22-C-4422).</t>
+    <t>https://www.war.gov/News/Contracts/Contract/Article/3136011/</t>
+  </si>
+  <si>
+    <t>https://www.war.gov/News/Contracts/Contract/Article/3137139/</t>
+  </si>
+  <si>
+    <t>https://www.war.gov/News/Contracts/Contract/Article/3138645/</t>
+  </si>
+  <si>
+    <t>https://www.war.gov/News/Contracts/Contract/Article/3140102/</t>
+  </si>
+  <si>
+    <t>https://www.war.gov/News/Contracts/Contract/Article/3141819/</t>
   </si>
 </sst>
 </file>
@@ -124,11 +226,11 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -472,20 +574,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C32A2EF0-6AE5-4C15-9CF0-4CEB2FFB30C8}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.9140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.08203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -496,15 +598,334 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="1">
+        <v>44792</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="1">
         <v>44792</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="1">
+        <v>44792</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="1">
+        <v>44792</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="1">
+        <v>44792</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="1">
+        <v>44795</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="1">
+        <v>44795</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="1">
+        <v>44796</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="1">
+        <v>44796</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="1">
+        <v>44796</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="1">
+        <v>44796</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="1">
+        <v>44796</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="2">
+        <v>44797</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="1">
+        <v>44797</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="1">
+        <v>44797</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="1">
+        <v>44797</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="1">
+        <v>44797</v>
+      </c>
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="1">
+        <v>44798</v>
+      </c>
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="1">
+        <v>44798</v>
+      </c>
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="1">
+        <v>44798</v>
+      </c>
+      <c r="C21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="1">
+        <v>44799</v>
+      </c>
+      <c r="C22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="1">
+        <v>44799</v>
+      </c>
+      <c r="C23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="1">
+        <v>44799</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="1">
+        <v>44799</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="1">
+        <v>44799</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="1">
+        <v>44799</v>
+      </c>
+      <c r="C27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="1">
+        <v>44799</v>
+      </c>
+      <c r="C28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="1">
+        <v>44799</v>
+      </c>
+      <c r="C29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="1">
+        <v>44799</v>
+      </c>
+      <c r="C30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="1">
+        <v>44799</v>
+      </c>
+      <c r="C31" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/data/source_file.xlsx
+++ b/data/source_file.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mukeshkr\Agentic-AI-Defense-Data-Extraction\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D80390F9-F97D-4122-AC78-26C9A56B3B7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E37CD27E-DA25-4D92-A658-5129406CF01B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1789C02F-0F05-431D-B1D8-FBD75DE85A9F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
   <si>
     <t>Source URL</t>
   </si>
@@ -47,112 +47,7 @@
     <t>Contract Description</t>
   </si>
   <si>
-    <t>BAE Systems - Norfolk Ship Repair, Norfolk, Virginia, is awarded a $107,736,087, firm-fixed-price contract for the execution of the USS Ross (DDG 71) fiscal 2023 extended dry-docking selected restricted availability. This availability will include a combination of maintenance, modernization and repair of the USS Ross. This contract includes options which, if exercised, would bring the cumulative value of this contract to $123,876,183. Work will be performed in Norfolk, Virginia, and is expected to be completed by March 2024. Fiscal 2022 operations and maintenance (Navy) funds in the amount of $93,897,036 (87%); and fiscal 2022 other procurement (Navy) funds in the amount of $13,839,051 (13%) will be obligated at time of award, of which $93,897,036 will expire at the end of the current fiscal year. This contract was competitively procured using full and open competition via the System for Award Management website. Competitive proposals were received in response to Solicitation Number (N00024-22-R-4422). The Naval Sea Systems Command, Washington, D.C., is the contracting activity (N00024-22-C-4422).</t>
-  </si>
-  <si>
-    <t>The Boeing Co., St. Louis, Missouri, is awarded a $25,648,020 fixed-firm-price, cost-plus-fixed-fee and cost-only, full rate production contract for the production of High-Altitude Anti-Submarine Warfare Weapon Capability Air Launch Accessory equipment, related engineering and hardware repair services, and other direct cost support. This contract includes options, which, if exercised, would bring the cumulative value of this contract to $121,426,700. Work will be performed in St. Charles, Missouri (44%); St. Louis, Missouri (26%); Salt Lake City, Utah (12%); Minneapolis, Minnesota (4%); Joplin, Missouri (2%),; Piedmont, Missouri (2%); Orlando, Florida (2%); Cedar Rapids, Iowa (2%); Chandler, Arizona (1%); Berea, Ohio (1%); Wichita, Kansas (1%); Albuquerque, New Mexico (1%); Lexington, Kentucky, (1%); and Chatsworth, California (1%), and is expected to be completed by September 2024. If all options are exercised, work will continue through September 2030. Fiscal 2020 weapons procurement (Navy) funds in the amount of $11,535,520 (98%); and fiscal 2021 weapons procurement (Navy) funds in the amount of $279,074 (2%) funding will be obligated at time of award, of which $11,535,520 will expire at the end of the current fiscal year. This contract was not competitively procured in accordance with 10 U.S. Code 2304(c) (1) — only one responsible source and no other supplies or services will satisfy agency requirements. The Naval Sea Systems Command, Washington, D.C., is the contracting activity (N00024-22-C-6407).</t>
-  </si>
-  <si>
-    <t>Intermat,* Biddeford, Maine, is awarded a $17,736,279 firm-fixed-price, cost-plus-fixed-fee, and cost-only indefinite-delivery/indefinite-quantity contract for the delivery of Submarine Launched Ballistic Missile nose-tip materials. This contract does not include options. This contract combines purchases for the Navy (82.23%) and the government of the United Kingdom (17.77%) under the Foreign Military Sales program. Work will be performed in Biddeford, Maine, and is expected to be completed by July 2027. Fiscal 2022 Weapons Procurement (Navy) funds in the amount of $1,301,611 will be obligated at time of award. This contract was not competitively procured in accordance with 10 U.S. Code 2304(c)(1) [now 10 U.S. Code 3204(a)(1)] — only one responsible source and no other type of supplies or services will satisfy agency requirements. The Naval Surface Warfare Center Dahlgren Division, Dahlgren, Virginia, is the contracting activity (N0017822D4404).</t>
-  </si>
-  <si>
-    <t>Raytheon Co., Tewksbury, Massachusetts, is awarded an $11,172,229 firm-fixed-price modification to previously awarded contract N00024-22-C-5522 for Total Ship Computing Environment Lab hardware for modernization/technical refresh and Conventional Prompt Strike to support DDG 1000-class combat system activation, sustainment and modernization.  Work will be performed in Nashua, New Hampshire (92%); Portsmouth, Rhode Island (4%); and  Tewksbury, Massachusetts (4%), and is expected to be completed by November 2023. Fiscal 2022 other procurement (Navy) funds in the amount of $9,333,203 (84%); and fiscal 2022 research, development, test and evaluation (Navy) funds in the amount of $1,839,026 (16%) will be obligated at time of award and will not expire at the end of the current fiscal year. The Naval Sea Systems Command, Washington, D.C., is the contracting activity.</t>
-  </si>
-  <si>
-    <t>General Atomics, San Diego, California, is awarded an $8,837,078 firm-fixed-price order (N0001922F2258) against a previously issued basic ordering agreement (N0001921G0014). This order provides for the development of a two or three launch motor subsystem, two energy storage group tailored configuration of the Electromagnetic Aircraft Launch System (EMALS) and a three wire, six energy absorber subsystem Advanced Arresting Gear System configuration that are compatible with the government of France’s future aircraft carrier and provides acceptable mission capability. Work will be performed in San Diego, California (98.85%); and Tupelo, Mississippi (1.15%), and is expected to be completed in June 2023. Foreign Military Sales customer funds in the amount of $8,837,078 will be obligated at the time of award, none of which will expire at the end of the current fiscal year. The Naval Air Systems Command, Patuxent River, Maryland, is the contracting activity.</t>
-  </si>
-  <si>
-    <t>The Johns Hopkins University Applied Physics Laboratory, Laurel, Maryland, is awarded a $4,396,000,000 cost-plus-fixed-fee, indefinite-delivery/indefinite-quantity contract for research, development, engineering, and test and evaluation for programs throughout the Department of Defense within its core competency areas including strategic systems test and evaluation; submarine security and survivability; space science and engineering; combat systems and guided missiles; air and missile defense and power projection; information technology, simulation, modeling, and operations analysis; and mission related research, development, test and evaluation. This contract includes options which, if exercised, would bring the cumulative value of this contract to $10,600,000,000. Work will be performed in Laurel, Maryland, and is expected to be completed by August 2027. If all options are exercised, work will continue through August 2032. Fiscal 2022 research, development, test and evaluation (Navy) funds in the amount of $6,803,376 will be obligated at time of award and will not expire at the end of the current fiscal year. This contract was not competitively procured in accordance with 10 U.S. Code 2304(c)(3)(B), as implemented in Defense Federal Acquisition Regulation 6.302-3 — industrial mobilization; engineering, developmental, or research capability; or expert services. The Naval Sea Systems Command, Washington, D.C., is the contracting activity (N00024-22-D-6404).</t>
-  </si>
-  <si>
-    <t>BAE Systems Land &amp; Armaments L.P., Sterling Heights, Michigan, was awarded a $278,182,786 firm-fixed-price contract for production units, spare parts and contractor logistics support for the Cold Weather All-Terrain Vehicle. Bids were solicited via the internet with two received. Work locations and funding will be determined with each order, with an estimated completion date of Aug. 19, 2029. U.S. Army Contracting Command, Detroit Arsenal, Michigan, is the contracting activity (W56HZV-22-D-0082).</t>
-  </si>
-  <si>
-    <t>Day and Zimmermann Inc., Parsons, Kansas (W52P1J-22-D-0031); and General Dynamics Ordnance and Tactical Systems Canada Inc., Repentigny, Quebec, Canada (W52P1J-22-D-0032), will compete for each order of the $372,589,589 firm-fixed-price contract to load, assemble and package high-explosive mortar cartridges. Bids were solicited via the internet with three received. Work locations and funding will be determined with each order, with an estimated completion date of Aug. 18, 2027. U.S. Army Contracting Command, Rock Island Arsenal, Illinois, is the contracting activity.</t>
-  </si>
-  <si>
-    <t>Oshkosh Defense LLC, Oshkosh, Wisconsin, was awarded a $22,639,245 modification (P00315) to contract W56HZV-20-C-0050 to exercise available options to support the fielding of Joint Light Tactical Vehicles, packaged and installed kits, and trailers. Work will be performed in Oshkosh, Wisconsin, with an estimated completion date of Sept. 30, 2024. Fiscal 2020 other procurement, Army funds and fiscal 2020 and 2022 Marine Corps procurement funds in the amount of $22,639,245 were obligated at the time of the award. U.S. Army Contracting Command, Detroit Arsenal, Michigan, is the contracting activity.</t>
-  </si>
-  <si>
-    <t>Advanced Systems and Software Engineering Technologies LLC,* Ridgecrest, California, is awarded a $292,310,598 cost-plus-fixed-fee, cost reimbursable, indefinite-delivery/indefinite-quantity contract. This contract provides system engineering, analysis, research, development, logistics, configuration and data management services in support of the Naval Air Warfare Center Weapons Division’s aircraft integrated product teams for the development, integration, test, evaluation, and fielding of new and upgraded capabilities to Navy aircraft, to include F/A-18, EA-18G, F-35, AV-8B, AH-1/UH-1 aircraft and unmanned aerial systems. Work will be performed in China Lake, California (86.5%); Eglin Air Force Base, Florida (7%); Ridgecrest, California (5%); Point Mugu, California (1%); and various locations within the continental U.S. (0.5%), and is expected to be completed in October 2027. No funds will be obligated at the time of award; funds will be obligated on individual orders as they are issued.  This contract was competitively procured as a small business set-aside; three offers were received. The Naval Air Warfare Center Weapons Division, China Lake, California, is the contracting activity (N6893622D0038).</t>
-  </si>
-  <si>
-    <t>Lockheed Martin Rotary and Mission Systems, Manassas, Virginia, is awarded a $78,423,685 cost-plus-incentive-fee and cost reimbursement contract modification to previously awarded contract N00024-17-C-6259 to exercise options for engineering design and development.  Work will be performed in Manassas, Virginia (65%); Clearwater, Florida (32%); Syracuse, New York (2%); and Marion, Florida (1%), and is expected to be completed by December 2023. Fiscal 2022 other procurement (Navy) funds in the amount of $58,919 will be obligated at time of award, and will not expire at the end of the current fiscal year. The Naval Sea Systems Command, Washington Navy Yard, Washington, D.C., is the contracting activity.</t>
-  </si>
-  <si>
-    <t>Lockheed Martin Corp., Rotary and Mission Systems, Moorestown, New Jersey, is awarded a $13,542,835 cost-plus-incentive-fee modification to previously awarded contract N00024-13-C-5116 for AEGIS combat system engineering agent efforts, which include the design, development, integration, test and delivery of Advanced Capability Build 20. Work will be performed in Moorestown, New Jersey, and is expected to be completed by May 2023. Fiscal 2019 shipbuilding and conversion (Navy) funds in the amount of $7,220,634 (53%); fiscal 2018 shipbuilding and conversion (Navy) funds in the amount of $5,883,043 (44%); and fiscal 2021 shipbuilding and conversion (Navy) funds in the amount of $439,158 (3%) will be obligated at time of award and do not expire at the end of the current fiscal year. The Naval Sea Systems Command, Washington, D.C., is the contracting activity.</t>
-  </si>
-  <si>
-    <t>AM General LLC, South Bend, Indiana, was awarded a $732,741,016 modification (P00042) to contract W56HZV-17-D-0071 for production of High Mobility Multipurpose Wheeled Vehicle Expanded Capacity Vehicle variants. Bids were solicited via the internet with one received. Work locations and funding will be determined with each order, with an estimated completion date of Dec. 31, 2024. U.S. Army Contracting Command, Detroit Arsenal, Michigan, is the contracting activity. (Awarded Aug. 19, 2022)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BAE Systems Land &amp; Armaments L.P., York, Pennsylvania, was awarded a $49,689,943 cost-no-fee contract for Bradley Fighting Vehicles. Bids were solicited via the internet with one received. Work will be performed in York, Pennsylvania, with an estimated completion date of Aug. 23, 2023. Fiscal 2022 weapons and tracked combat vehicle procurement, Army funds in the amount of $49,689,943 were obligated at the time of the award. U.S. Army Contracting Command, Detroit Arsenal, Michigan, is the contracting activity (W56HZV-22-F-0413). </t>
-  </si>
-  <si>
-    <t>Charles Reed Knight Jr., doing business as Knight's Armament Co.,* Titusville, Florida, was awarded a $14,998,849 modification (P00004) to contract W15QKN-20-D-0044 for the M110 Semi-Automatic Sniper System and various M110 configurations. Bids were solicited via the internet with one received. Work locations and funding will be determined with each order, with an estimated completion date of Sept. 25, 2025. U.S. Army Contracting Command, Newark, New Jersey, is the contracting activity.</t>
-  </si>
-  <si>
-    <t>L-3 Communication Integrated Systems L.P., Greenville, Texas, has been awarded a $96,538,833 cost-plus-fixed-fee and firm-fixed-price contract action for the procurement and fabrication of Group B Ground and System Integration Lab material. Work will be performed in Greenville, Texas, and is expected be complete by June 30, 2024. This contract involved 100% foreign military sales. This award is the result of a sole source acquisition. Foreign Military Sales funds in the amount of $96,538,833 are being obligated at the time of award. The 645th Aeronautical Systems Group, Wright-Patterson Air Force Base, Ohio, is the contracting activity (FA8620-21-G-4027 / FA8620-22-F-4831).</t>
-  </si>
-  <si>
-    <t>Dyncorp International LLC, Fort Worth, Texas, is awarded a $30,268,759 firm-fixed-price, cost-plus-fixed-fee, cost reimbursable modification (P00071) to a previously awarded contract (N6893617C0052). This modification exercises an option to extend services to provide continued organizational level aircraft maintenance and logistics support for aircrew systems and subsystems, search and rescue equipment, and support equipment for the P-3 Orion, C-130 Hercules, F/A-18 Hornet, E/A-18 Growler, AV-8B Harrier II, H-60 Seahawk, and E-2D Hawkeye aircraft in support of the Naval Air Warfare Center Weapons Division (NAWCWD) Naval Test Wing Pacific. Work will be performed in China Lake, California (60%); Point Mugu, California (30 %); Hickam Air Force Base, Hawaii (2%); Lemoore, California (2%); Patrick AFB, Florida (1%); Holloman AFB, New Mexico (1%); Patuxent River, Maryland, (1%); Yuma, Arizona (1%); Miramar, California (1%); and North Island, California (1%), and is expected to be completed in April 2023. Working capital (Navy) funds in the amount of $10,113,024 will be obligated at time of award, none of which will expire at the end of the current fiscal year. The NAWCWD, Point Mugu, California, is the contracting activity.</t>
-  </si>
-  <si>
-    <t>Grove U.S. LLC, Shady Grove, Pennsylvania, has been awarded a maximum $266,866,453 fixed-price with economic-price-adjustment, indefinite-delivery requirements contract for commercial cranes. This was a competitive acquisition with one response received. This is a five-year contract with no option periods. Other contracts are expected to be awarded under this solicitation (SPE8EC-21-R-0003) and awardees will compete for a portion of the maximum dollar value. The ordering period end date is Aug. 23, 2027. Using military services are Army, Navy and Marine Corps. Type of appropriation is fiscal 2022 through 2027 defense working capital funds. The contracting activity is the Defense Logistics Agency Troop Support, Philadelphia, Pennsylvania (SPE8EC-22-D-0011).</t>
-  </si>
-  <si>
-    <t>General Dynamics Land Systems Inc., Sterling Heights, Michigan, was awarded a $25,999,349 modification (P00015) to contract W56HZV-22-C-0012 for Abrams systems technical support. Work will be performed in Sterling Heights, Michigan, with an estimated completion date of Sept. 30, 2025. Fiscal 2020 other procurement, Army funds in the amount of $25,999,349 were obligated at the time of the award. U.S. Army Contracting Command, Detroit Arsenal, Michigan, is the contracting activity.</t>
-  </si>
-  <si>
-    <t>Raytheon Co., Poulsbo, Washington, is awarded an $18,543,264 cost-plus-fixed-fee and firm-fixed-price, indefinite delivery/indefinite-quantity requirements contract for depot-level support, maintenance and modifications support of the AN/AQS-20 Sonar Mine Detecting Set, and the AN/MHP-20 Deploy and Retrieve system for the AN/AQS-20 System. The AN/AQS-20 is a towed, mine hunting and identification system for Program Executive Office, Unmanned and Small Combatants. This contract includes options which, if exercised, would bring the cumulative value of this contract to $91,706,089. Work will be performed in Portsmouth, Rhode Island (65%); Poulsbo, Washington (30%); and Panama City, Florida (5%); and is expected to be completed by August 2023. If all options are exercised, work will continue through August 2027. No funding will be obligated at time of award. This contract was not competitively procured in accordance with Defense Federal Acquisition Regulation 6.302-1(a)(2)(ii) and (iii) – circumstances permitting other than full and open competition when only one source and no supplies or services will satisfy agency requirements. Naval Surface Warfare Center, Panama City Division, Panama City, Florida, is the contracting activity (N6133122D0004).</t>
-  </si>
-  <si>
-    <t>ATAP Inc., Eastaboga, Alabama (FA8517-22-D-0009); Boneal Inc., Means, Kentucky (FA8517-22-D-0012); and F3 Logistics LLC, Warner Robins, Georgia (FA8517-22-D-0013), have been awarded a multiple award, small business set-aside contract ceiling of $533,500,000 for the sourcing of support equipment (SE) with a unit price of $50,000, or less. This contract provides for the sourcing, acquiring, and delivery of a broad range of ground and aircraft SE items. Work will be performed at various locations, and is expected to be complete by Aug. 25, 2032. This contract involves Army, Navy and Foreign Military Sales to be determined as needed on individual delivery orders. This award is the result of a competitive acquisition with one solicitation posted to sam.gov and nine offers were received. Fiscal 2020 Air Force procurement funds in the amount of $13,646; and fiscal 2021 Air Force procurement funds in the amount of $16,597 are being obligated at the time of award. Air Force Sustainment Center, Robins Air Force Base, Georgia, is the contract activity.</t>
-  </si>
-  <si>
-    <t>Altamira Technologies Corp., McLean, Virginia, has been awarded a $280,000,000 modification (P00029) to a previously awarded, cost-plus-fixed-fee, firm-fixed-price, and cost-plus-incentive-fee, multiple award, indefinite-delivery/indefinite-quantity contract (FA8604-15-D-7977). The contract provides for Advanced Technical Exploitation Program II support for geospatial intelligence (GEOINT) research and development; and measurement and signature intelligence (MASINT) research and development; GEOINT and MASINT operational production support; and other mission areas. Work will be performed at the National Air and Space Intelligence Center, Wright-Patterson Air Force Base, Ohio, and other locations, and is expected to be completed by Oct. 2, 2024. The contract modification provides for an increase to the overall ceiling of the contract; and an extension of the ordering period by one year. This modification increases the estimated contract value from $960,000,000 to $1,240,000,000. Total cumulative face value of the contract is $1,240,000,000. No funds will be obligated at the time of award. Air Force Life Cycle Management Center, Wright-Patterson AFB, Ohio, is the contracting activity.</t>
-  </si>
-  <si>
-    <t>Radiance Technologies, Huntsville, Alabama, has been awarded a $280,000,000 modification (P00025) to a previously awarded, cost-plus-fixed-fee, firm-fixed-price, and cost-plus-incentive-fee, multiple award, indefinite-delivery/indefinite-quantity contract (FA8604-15-D-7976). The contract provides for Advanced Technical Exploitation Program II support for geospatial intelligence (GEOINT) research and development; and measurement and signature intelligence (MASINT) research and development; GEOINT and MASINT operational production support; and other mission areas. Work will be performed at the National Air and Space Intelligence Center, Wright-Patterson Air Force Base, Ohio, and other locations,  and is expected to be completed by Oct. 2, 2024. The contract modification provides for an increase to the overall ceiling of the contract; and an extension of the ordering period by one year. This modification increases the estimated contract value from $960,000,000 to $1,240,000,000. Total cumulative face value of the contract is $1,240,000,000. No funds will be obligated at the time of award. Air Force Life Cycle Management Center, Wright-Patterson AFB, Ohio, is the contracting activity.</t>
-  </si>
-  <si>
-    <t>Centauri LLC, Chantilly, Virginia, has been awarded a $280,000,000 modification (P00031) to a previously awarded, cost-plus-fixed-fee, firm-fixed-price, and cost-plus-incentive-fee, multiple award, indefinite-delivery/indefinite-quantity contract (FA8604-15-D-7975). The contract provides for Advanced Technical Exploitation Program II support for geospatial intelligence (GEOINT) research and development; and measurement and signature intelligence (MASINT) research and development; GEOINT and MASINT operational production support; and other mission areas. Work will be performed at the National Air and Space Intelligence Center, Wright-Patterson Air Force Base, Ohio, and other locations, and is expected to be completed by Oct. 2, 2024. The contract modification provides for an increase to the overall ceiling of the contract; and an extension of the ordering period by one year. This modification increases the estimated contract value from $960,000,000 to $1,240,000,000. Total cumulative face value of the contract is $1,240,000,000. No funds will be obligated at the time of award. Air Force Life Cycle Management Center, Wright-Patterson AFB, Ohio, is the contracting activity.</t>
-  </si>
-  <si>
-    <t>Lockheed Martin Corp., Orlando, Florida, has been awarded a $15,000,000 firm-fixed-price contract for Stand-in Attack Weapon Phase 1.2. This contract provides for all activities associated with the statement of objectives as well as the contractor's proposal for Phase 1.2. Work will be performed in Orlando, Florida, and is expected to be complete by Feb. 25, 2023. This award is the result of a sole source acquisition. Fiscal 2022 Air Force research and development funds in the amount of $15,000,000 are being obligated at the time of award. Air Force Life Cycle Management Center, Eglin Air Force Base, Florida, is the contracting activity (FA8656-22-F-1036).</t>
-  </si>
-  <si>
-    <t>Northrop Grumman Systems Corp., Northridge, California, has been awarded a $15,000,000 firm-fixed-price contract for Stand-in Attack Weapon Phase 1.2. This contract provides for all activities associated with the statement of objectives as well as the contractor's proposal for Phase 1.2. Work will be performed in Northridge, California, and is expected to be complete by Feb. 25, 2023. This award is the result of a sole source acquisition. Fiscal 2022 Air Force research and development funds in the amount of $15,000,000 are being obligated at the time of award. Air Force Life Cycle Management Center, Eglin Air Force Base, Florida, is the contracting activity (FA8656-22-F-1051).</t>
-  </si>
-  <si>
-    <t>L3Harris Mustang Technology Group LP, Plano, Texas, has been awarded a $14,579,829 firm-fixed-price contract for Stand-in Attack Weapon Phase 1.2. This contract provides for all activities associated with the statement of objectives as well as the contractor's proposal for Phase 1.2. Work will be performed in Plano, Texas, and is expected to be complete by Feb. 25, 2023. This award is the result of a sole source acquisition. Fiscal 2022 Air Force research and development funds in the amount of $14,579,829 are being obligated at the time of award. Air Force Life Cycle Management Center, Eglin Air Force Base, Florida, is the contracting activity (FA8656-22-F-1031).</t>
-  </si>
-  <si>
-    <t>Raytheon Missiles and Defense, Tucson, Arizona, has been awarded a non-competitive, firm-fixed-price modification (P00021) to previously awarded contract (FA8675-21-C-0034) in the amount of $8,837,522 for Advanced Medium Range Air-to-Air Missile Production Lot 35 Rectifier Filter Assembly Captive Air Training Missile Retrofit effort. Work will be performed in Tucson, Arizona, and is expected to be completed by May 30, 2026. Fiscal 2021 Air Force missile procurement funds in the amount of $4,485,281; fiscal 2021 Navy weapons procurement funds in the amount of $3,865,690; and Foreign Military Sales funds in the amount of $486,551 are being obligated at the time of award. Air Force Life Cycle Management Center, Air Dominance Division Contracting Office, Eglin Air Force Base, Florida, is the contracting activity.</t>
-  </si>
-  <si>
-    <t>Raytheon Co., Tewksbury, Massachusetts, was awarded a $182,295,333 firm-fixed-price contract for the procurement of National Advanced Surface-to-Air Missile Systems. Bids were solicited via the internet with one received. Work will be performed in Tewksbury, Massachusetts, with an estimated completion date of Aug. 23, 2024. Fiscal 2022 Ukraine Security Assistance Initiative funds in the amount of $182,295,333 were obligated at the time of the award. U.S. Army Contracting Command, Redstone Arsenal, Alabama, is the contracting activity (W31P4Q-22-C-0068).</t>
-  </si>
-  <si>
-    <t>MORSECORP Inc., Cambridge, Massachusetts, was awarded a $44,890,537 firm-fixed-price contract for advanced test and evaluation of artificial intelligence and machine learning progress algorithms. Bids were solicited via the internet with 999 received. Work will be performed in Cambridge, Massachusetts, with an estimated completion date of Aug. 31, 2025. Fiscal 2022 research, development, test, and evaluation, Army funds in the amount of $3,195,693 were obligated at the time of the award. U.S. Army Contracting Command, Aberdeen Proving Ground, Maryland, is the contracting activity (W911QX-22-C-0029).</t>
-  </si>
-  <si>
-    <t>https://www.war.gov/News/Contracts/Contract/Article/3134553/</t>
-  </si>
-  <si>
-    <t>https://www.war.gov/News/Contracts/Contract/Article/3136011/</t>
-  </si>
-  <si>
-    <t>https://www.war.gov/News/Contracts/Contract/Article/3137139/</t>
-  </si>
-  <si>
-    <t>https://www.war.gov/News/Contracts/Contract/Article/3138645/</t>
-  </si>
-  <si>
-    <t>https://www.war.gov/News/Contracts/Contract/Article/3140102/</t>
-  </si>
-  <si>
-    <t>https://www.war.gov/News/Contracts/Contract/Article/3141819/</t>
+    <t>Northrop Grumman Systems Corp., Aerospace Systems, Melbourne, Florida, is awarded a $12,015,026 modification (P00036) to a previously awarded cost-plus-fixed-fee contract (N0001914C0036). This modification increases the ceiling to extend services and adds hours increasing the full-scale fatigue repair time to achieve the required simulated flight hours in support of E-2D Advanced Hawkeye aircraft development. Work will be performed in El Segundo, California (59%); Melbourne, Florida (35%); and Bethpage, New York (6%), and is expected to be completed in June 2023. No funds will be obligated at time of award. The Naval Air Systems Command, Patuxent River, Maryland, is the contracting activity.</t>
   </si>
 </sst>
 </file>
@@ -224,14 +119,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -574,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C32A2EF0-6AE5-4C15-9CF0-4CEB2FFB30C8}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -600,332 +491,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>44792</v>
+        <v>44350</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="1">
-        <v>44792</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="1">
-        <v>44792</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="1">
-        <v>44792</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="1">
-        <v>44792</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="1">
-        <v>44795</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="1">
-        <v>44795</v>
-      </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="1">
-        <v>44796</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="1">
-        <v>44796</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="1">
-        <v>44796</v>
-      </c>
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="1">
-        <v>44796</v>
-      </c>
-      <c r="C12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="1">
-        <v>44796</v>
-      </c>
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="2">
-        <v>44797</v>
-      </c>
-      <c r="C14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="1">
-        <v>44797</v>
-      </c>
-      <c r="C15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="1">
-        <v>44797</v>
-      </c>
-      <c r="C16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="1">
-        <v>44797</v>
-      </c>
-      <c r="C17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="1">
-        <v>44797</v>
-      </c>
-      <c r="C18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" s="1">
-        <v>44798</v>
-      </c>
-      <c r="C19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="1">
-        <v>44798</v>
-      </c>
-      <c r="C20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="1">
-        <v>44798</v>
-      </c>
-      <c r="C21" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="1">
-        <v>44799</v>
-      </c>
-      <c r="C22" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="1">
-        <v>44799</v>
-      </c>
-      <c r="C23" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" s="1">
-        <v>44799</v>
-      </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="1">
-        <v>44799</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" s="1">
-        <v>44799</v>
-      </c>
-      <c r="C26" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>38</v>
-      </c>
-      <c r="B27" s="1">
-        <v>44799</v>
-      </c>
-      <c r="C27" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>38</v>
-      </c>
-      <c r="B28" s="1">
-        <v>44799</v>
-      </c>
-      <c r="C28" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="1">
-        <v>44799</v>
-      </c>
-      <c r="C29" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30" s="1">
-        <v>44799</v>
-      </c>
-      <c r="C30" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>38</v>
-      </c>
-      <c r="B31" s="1">
-        <v>44799</v>
-      </c>
-      <c r="C31" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/data/source_file.xlsx
+++ b/data/source_file.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mukeshkr\Agentic-AI-Defense-Data-Extraction\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E37CD27E-DA25-4D92-A658-5129406CF01B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CCE524B-D20B-4C6D-B5F1-A80E5D1E11CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1789C02F-0F05-431D-B1D8-FBD75DE85A9F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Source URL</t>
   </si>
@@ -47,7 +47,10 @@
     <t>Contract Description</t>
   </si>
   <si>
-    <t>Northrop Grumman Systems Corp., Aerospace Systems, Melbourne, Florida, is awarded a $12,015,026 modification (P00036) to a previously awarded cost-plus-fixed-fee contract (N0001914C0036). This modification increases the ceiling to extend services and adds hours increasing the full-scale fatigue repair time to achieve the required simulated flight hours in support of E-2D Advanced Hawkeye aircraft development. Work will be performed in El Segundo, California (59%); Melbourne, Florida (35%); and Bethpage, New York (6%), and is expected to be completed in June 2023. No funds will be obligated at time of award. The Naval Air Systems Command, Patuxent River, Maryland, is the contracting activity.</t>
+    <t>AV3 Inc.,* Mechanicsville, Maryland (N0042121D0026); Bridges System Integration LLC,* Herndon, Virginia (N0042121D0027); FGS LLC,* LaPlata, Maryland (N0042121D0028); Futron Inc.,* Woodbridge, Virginia (N0042121D0029); iSoft Solution LLC,* Virginia Beach, Virginia (N0042121D0030); Mission Analytics LLC,* Falls Church, Virginia (N0042121D0031); and US International Development Consortium Inc.,* Chantilly, Virginia (N0042121D0032), are awarded an estimated aggregate ceiling of $100,000,000 cost-plus-fixed-fee, firm-fixed-price, cost reimbursable, indefinite-delivery/indefinite-quantity contract in support of the Naval Air Warfare Center Aircraft Division Integrated Command, Control and Intelligence (IC2&amp;I) Division. These contracts provide engineering and technical support services for legacy, current, and next generation audio/video systems, including efficient information exchange of voice, video and/or data from concept through deployment and the planning, research, design, testing, integration, verification, customization, installation and system operations support of those systems, subsystems, and components in support of the IC2&amp;I Division, which integrates and delivers products for command, control, communications, computers, combat systems, intelligence, surveillance, and reconnaissance systems for the U.S Department of Defense, various other U.S. government departments and agencies and foreign governments. The estimated aggregate ceiling for all contracts is $100,000,000, with the companies having an opportunity to compete for individual orders. Work will be performed at various locations within and outside the continental U.S., and is expected to be completed in June 2026. No funds are being obligated at time of award; funds will be obligated on individual orders as they are issued. These contracts were competitively procured via a small business set aside; 13 offers from 13 vendors were received. The Naval Air Warfare Center Aircraft Division, Patuxent River, Maryland, is the contracting activity.</t>
+  </si>
+  <si>
+    <t>https://www.defense.gov/News/Contracts/Contract/Article/2650662/</t>
   </si>
 </sst>
 </file>
@@ -468,7 +471,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -491,10 +494,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1">
-        <v>44350</v>
+        <v>44355</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>

--- a/data/source_file.xlsx
+++ b/data/source_file.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mukeshkr\Agentic-AI-Defense-Data-Extraction\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CCE524B-D20B-4C6D-B5F1-A80E5D1E11CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAD90D2F-E961-4864-B9C0-851F61DABEBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1789C02F-0F05-431D-B1D8-FBD75DE85A9F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1789C02F-0F05-431D-B1D8-FBD75DE85A9F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>Source URL</t>
   </si>
@@ -47,10 +47,28 @@
     <t>Contract Description</t>
   </si>
   <si>
-    <t>AV3 Inc.,* Mechanicsville, Maryland (N0042121D0026); Bridges System Integration LLC,* Herndon, Virginia (N0042121D0027); FGS LLC,* LaPlata, Maryland (N0042121D0028); Futron Inc.,* Woodbridge, Virginia (N0042121D0029); iSoft Solution LLC,* Virginia Beach, Virginia (N0042121D0030); Mission Analytics LLC,* Falls Church, Virginia (N0042121D0031); and US International Development Consortium Inc.,* Chantilly, Virginia (N0042121D0032), are awarded an estimated aggregate ceiling of $100,000,000 cost-plus-fixed-fee, firm-fixed-price, cost reimbursable, indefinite-delivery/indefinite-quantity contract in support of the Naval Air Warfare Center Aircraft Division Integrated Command, Control and Intelligence (IC2&amp;I) Division. These contracts provide engineering and technical support services for legacy, current, and next generation audio/video systems, including efficient information exchange of voice, video and/or data from concept through deployment and the planning, research, design, testing, integration, verification, customization, installation and system operations support of those systems, subsystems, and components in support of the IC2&amp;I Division, which integrates and delivers products for command, control, communications, computers, combat systems, intelligence, surveillance, and reconnaissance systems for the U.S Department of Defense, various other U.S. government departments and agencies and foreign governments. The estimated aggregate ceiling for all contracts is $100,000,000, with the companies having an opportunity to compete for individual orders. Work will be performed at various locations within and outside the continental U.S., and is expected to be completed in June 2026. No funds are being obligated at time of award; funds will be obligated on individual orders as they are issued. These contracts were competitively procured via a small business set aside; 13 offers from 13 vendors were received. The Naval Air Warfare Center Aircraft Division, Patuxent River, Maryland, is the contracting activity.</t>
-  </si>
-  <si>
     <t>https://www.defense.gov/News/Contracts/Contract/Article/2650662/</t>
+  </si>
+  <si>
+    <t>Northrop Grumman Systems Corp., Aerospace Systems, Melbourne, Florida, is awarded a $12,015,026 modification (P00036) to a previously awarded cost-plus-fixed-fee contract (N0001914C0036). This modification increases the ceiling to extend services and adds hours increasing the full-scale fatigue repair time to achieve the required simulated flight hours in support of E-2D Advanced Hawkeye aircraft development. Work will be performed in El Segundo, California (59%); Melbourne, Florida (35%); and Bethpage, New York (6%), and is expected to be completed in June 2023. No funds will be obligated at time of award. The Naval Air Systems Command, Patuxent River, Maryland, is the contracting activity.</t>
+  </si>
+  <si>
+    <t>https://www.defense.gov/News/Contracts/Contract/Article/2644648/</t>
+  </si>
+  <si>
+    <t>General Dynamics NASSCO – San Diego, San Diego, California, is awarded a $98,749,123, firm-fixed-price contract for the execution of the USS Pinckney (DDG 91) FY22 depot modernization period. This availability will include a combination of maintenance, modernization and repair of the USS Pinckney. This contract includes options which, if exercised, would bring the cumulative value of this contract to $121,109,530. Work will be performed in San Diego, California, and is expected to be completed by July 2023. Fiscal 2021 other procurement (Navy) funds in the amount of $93,500,245 (94.7%); and fiscal 2021 operation and maintenance (Navy) funds in the amount of $5,248,878 (5.3%) will be obligated at time of award, of which, funding in the amount of $5,248,878 will expire at the end of the current fiscal year. This contract was competitively procured using full and open competition via the beta.sam.gov website with three offers were received in response to Solicitation No. N00024-21-R-4478.  The Naval Sea Systems Command, Washington, D.C., is the contracting activity (N00024-21-C-4478).</t>
+  </si>
+  <si>
+    <t>https://www.defense.gov/News/Contracts/Contract/Article/2646965/</t>
+  </si>
+  <si>
+    <t>Georgia Tech Applied Research Corp., Atlanta, Georgia, has been awarded a ceiling $92,000,000 indefinite-delivery/indefinite-quantity contract to obtain essential analysis documentation. This includes work closely related to governmental functions in the domains of engineering, research, development, modeling and simulation, and test and evaluation for the development and application of advanced technology solutions. Work will be performed in Atlanta, Georgia, and is expected to be completed June 3, 2026. This award is the result of a sole-source acquisition. Fiscal 2021 research, development, test and evaluation funds in the amount of $1,749,206 are being obligated at the time of award. Air Force Life Cycle  anagement Center, Wright-Patterson Air Force Base, Ohio, is the contracting activity (FA8684-21-D-2002).</t>
+  </si>
+  <si>
+    <t>Bowhead Cybersecurity Solutions and Services, Springfield, Virginia is awarded a $92,308,000 cost-plus fixed-fee and cost-only contract for senior consultation support services. Work will be performed in the Washington, D.C. area and is expected to be completed by June 2026. Fiscal 2021 operation and maintenance (Navy) funding in the amount of $2,500,000 will be obligated at the time of award. There are no options for this contract award. This funding would have expired at the end of the current fiscal year if this award had not been made. This contract was a directed in accordance with Section 8(a) of the Small Business Act (15 USC 637(a)(1)) and the Federal Acquisition Regulation part 19.8. The Naval Information Warfare Systems Command, San Diego, California, is the contracting activity (N00039-21-D-5000).</t>
+  </si>
+  <si>
+    <t>FN America LLC, Columbia, South Carolina, was awarded a $92,104,736 firm-fixed-price contract to procure M240 Series machine gun variants and spare receivers. One bid was solicited via the internet with one received. Work locations and funding will be determined with each order, with an estimated completion date of June 8, 2026. U.S. Army Contracting Command, New Jersey, is the contracting activity (W15QKN-21-D-0038).</t>
   </si>
 </sst>
 </file>
@@ -60,7 +78,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -95,6 +113,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -122,10 +145,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -468,20 +499,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C32A2EF0-6AE5-4C15-9CF0-4CEB2FFB30C8}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B6" sqref="B2:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.8984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.69921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.09765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.9140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -492,15 +523,59 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1">
+        <v>44350</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1">
+        <v>44351</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1">
+        <v>44351</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
         <v>44355</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>3</v>
+      </c>
+      <c r="B6" s="1">
+        <v>44355</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/data/source_file.xlsx
+++ b/data/source_file.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mukeshkr\Agentic-AI-Defense-Data-Extraction\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAD90D2F-E961-4864-B9C0-851F61DABEBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD7C5B7-1011-4BC3-B9CE-D5AF0FF40611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1789C02F-0F05-431D-B1D8-FBD75DE85A9F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1789C02F-0F05-431D-B1D8-FBD75DE85A9F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="39">
   <si>
     <t>Source URL</t>
   </si>
@@ -47,37 +47,118 @@
     <t>Contract Description</t>
   </si>
   <si>
-    <t>https://www.defense.gov/News/Contracts/Contract/Article/2650662/</t>
-  </si>
-  <si>
-    <t>Northrop Grumman Systems Corp., Aerospace Systems, Melbourne, Florida, is awarded a $12,015,026 modification (P00036) to a previously awarded cost-plus-fixed-fee contract (N0001914C0036). This modification increases the ceiling to extend services and adds hours increasing the full-scale fatigue repair time to achieve the required simulated flight hours in support of E-2D Advanced Hawkeye aircraft development. Work will be performed in El Segundo, California (59%); Melbourne, Florida (35%); and Bethpage, New York (6%), and is expected to be completed in June 2023. No funds will be obligated at time of award. The Naval Air Systems Command, Patuxent River, Maryland, is the contracting activity.</t>
-  </si>
-  <si>
-    <t>https://www.defense.gov/News/Contracts/Contract/Article/2644648/</t>
-  </si>
-  <si>
-    <t>General Dynamics NASSCO – San Diego, San Diego, California, is awarded a $98,749,123, firm-fixed-price contract for the execution of the USS Pinckney (DDG 91) FY22 depot modernization period. This availability will include a combination of maintenance, modernization and repair of the USS Pinckney. This contract includes options which, if exercised, would bring the cumulative value of this contract to $121,109,530. Work will be performed in San Diego, California, and is expected to be completed by July 2023. Fiscal 2021 other procurement (Navy) funds in the amount of $93,500,245 (94.7%); and fiscal 2021 operation and maintenance (Navy) funds in the amount of $5,248,878 (5.3%) will be obligated at time of award, of which, funding in the amount of $5,248,878 will expire at the end of the current fiscal year. This contract was competitively procured using full and open competition via the beta.sam.gov website with three offers were received in response to Solicitation No. N00024-21-R-4478.  The Naval Sea Systems Command, Washington, D.C., is the contracting activity (N00024-21-C-4478).</t>
-  </si>
-  <si>
-    <t>https://www.defense.gov/News/Contracts/Contract/Article/2646965/</t>
-  </si>
-  <si>
-    <t>Georgia Tech Applied Research Corp., Atlanta, Georgia, has been awarded a ceiling $92,000,000 indefinite-delivery/indefinite-quantity contract to obtain essential analysis documentation. This includes work closely related to governmental functions in the domains of engineering, research, development, modeling and simulation, and test and evaluation for the development and application of advanced technology solutions. Work will be performed in Atlanta, Georgia, and is expected to be completed June 3, 2026. This award is the result of a sole-source acquisition. Fiscal 2021 research, development, test and evaluation funds in the amount of $1,749,206 are being obligated at the time of award. Air Force Life Cycle  anagement Center, Wright-Patterson Air Force Base, Ohio, is the contracting activity (FA8684-21-D-2002).</t>
-  </si>
-  <si>
-    <t>Bowhead Cybersecurity Solutions and Services, Springfield, Virginia is awarded a $92,308,000 cost-plus fixed-fee and cost-only contract for senior consultation support services. Work will be performed in the Washington, D.C. area and is expected to be completed by June 2026. Fiscal 2021 operation and maintenance (Navy) funding in the amount of $2,500,000 will be obligated at the time of award. There are no options for this contract award. This funding would have expired at the end of the current fiscal year if this award had not been made. This contract was a directed in accordance with Section 8(a) of the Small Business Act (15 USC 637(a)(1)) and the Federal Acquisition Regulation part 19.8. The Naval Information Warfare Systems Command, San Diego, California, is the contracting activity (N00039-21-D-5000).</t>
-  </si>
-  <si>
-    <t>FN America LLC, Columbia, South Carolina, was awarded a $92,104,736 firm-fixed-price contract to procure M240 Series machine gun variants and spare receivers. One bid was solicited via the internet with one received. Work locations and funding will be determined with each order, with an estimated completion date of June 8, 2026. U.S. Army Contracting Command, New Jersey, is the contracting activity (W15QKN-21-D-0038).</t>
+    <t>BAE Systems - Norfolk Ship Repair, Norfolk, Virginia, is awarded a $107,736,087, firm-fixed-price contract for the execution of the USS Ross (DDG 71) fiscal 2023 extended dry-docking selected restricted availability. This availability will include a combination of maintenance, modernization and repair of the USS Ross. This contract includes options which, if exercised, would bring the cumulative value of this contract to $123,876,183. Work will be performed in Norfolk, Virginia, and is expected to be completed by March 2024. Fiscal 2022 operations and maintenance (Navy) funds in the amount of $93,897,036 (87%); and fiscal 2022 other procurement (Navy) funds in the amount of $13,839,051 (13%) will be obligated at time of award, of which $93,897,036 will expire at the end of the current fiscal year. This contract was competitively procured using full and open competition via the System for Award Management website. Competitive proposals were received in response to Solicitation Number (N00024-22-R-4422). The Naval Sea Systems Command, Washington, D.C., is the contracting activity (N00024-22-C-4422).</t>
+  </si>
+  <si>
+    <t>The Boeing Co., St. Louis, Missouri, is awarded a $25,648,020 fixed-firm-price, cost-plus-fixed-fee and cost-only, full rate production contract for the production of High-Altitude Anti-Submarine Warfare Weapon Capability Air Launch Accessory equipment, related engineering and hardware repair services, and other direct cost support. This contract includes options, which, if exercised, would bring the cumulative value of this contract to $121,426,700. Work will be performed in St. Charles, Missouri (44%); St. Louis, Missouri (26%); Salt Lake City, Utah (12%); Minneapolis, Minnesota (4%); Joplin, Missouri (2%),; Piedmont, Missouri (2%); Orlando, Florida (2%); Cedar Rapids, Iowa (2%); Chandler, Arizona (1%); Berea, Ohio (1%); Wichita, Kansas (1%); Albuquerque, New Mexico (1%); Lexington, Kentucky, (1%); and Chatsworth, California (1%), and is expected to be completed by September 2024. If all options are exercised, work will continue through September 2030. Fiscal 2020 weapons procurement (Navy) funds in the amount of $11,535,520 (98%); and fiscal 2021 weapons procurement (Navy) funds in the amount of $279,074 (2%) funding will be obligated at time of award, of which $11,535,520 will expire at the end of the current fiscal year. This contract was not competitively procured in accordance with 10 U.S. Code 2304(c) (1) — only one responsible source and no other supplies or services will satisfy agency requirements. The Naval Sea Systems Command, Washington, D.C., is the contracting activity (N00024-22-C-6407).</t>
+  </si>
+  <si>
+    <t>Intermat,* Biddeford, Maine, is awarded a $17,736,279 firm-fixed-price, cost-plus-fixed-fee, and cost-only indefinite-delivery/indefinite-quantity contract for the delivery of Submarine Launched Ballistic Missile nose-tip materials. This contract does not include options. This contract combines purchases for the Navy (82.23%) and the government of the United Kingdom (17.77%) under the Foreign Military Sales program. Work will be performed in Biddeford, Maine, and is expected to be completed by July 2027. Fiscal 2022 Weapons Procurement (Navy) funds in the amount of $1,301,611 will be obligated at time of award. This contract was not competitively procured in accordance with 10 U.S. Code 2304(c)(1) [now 10 U.S. Code 3204(a)(1)] — only one responsible source and no other type of supplies or services will satisfy agency requirements. The Naval Surface Warfare Center Dahlgren Division, Dahlgren, Virginia, is the contracting activity (N0017822D4404).</t>
+  </si>
+  <si>
+    <t>Raytheon Co., Tewksbury, Massachusetts, is awarded an $11,172,229 firm-fixed-price modification to previously awarded contract N00024-22-C-5522 for Total Ship Computing Environment Lab hardware for modernization/technical refresh and Conventional Prompt Strike to support DDG 1000-class combat system activation, sustainment and modernization.  Work will be performed in Nashua, New Hampshire (92%); Portsmouth, Rhode Island (4%); and  Tewksbury, Massachusetts (4%), and is expected to be completed by November 2023. Fiscal 2022 other procurement (Navy) funds in the amount of $9,333,203 (84%); and fiscal 2022 research, development, test and evaluation (Navy) funds in the amount of $1,839,026 (16%) will be obligated at time of award and will not expire at the end of the current fiscal year. The Naval Sea Systems Command, Washington, D.C., is the contracting activity.</t>
+  </si>
+  <si>
+    <t>General Atomics, San Diego, California, is awarded an $8,837,078 firm-fixed-price order (N0001922F2258) against a previously issued basic ordering agreement (N0001921G0014). This order provides for the development of a two or three launch motor subsystem, two energy storage group tailored configuration of the Electromagnetic Aircraft Launch System (EMALS) and a three wire, six energy absorber subsystem Advanced Arresting Gear System configuration that are compatible with the government of France’s future aircraft carrier and provides acceptable mission capability. Work will be performed in San Diego, California (98.85%); and Tupelo, Mississippi (1.15%), and is expected to be completed in June 2023. Foreign Military Sales customer funds in the amount of $8,837,078 will be obligated at the time of award, none of which will expire at the end of the current fiscal year. The Naval Air Systems Command, Patuxent River, Maryland, is the contracting activity.</t>
+  </si>
+  <si>
+    <t>The Johns Hopkins University Applied Physics Laboratory, Laurel, Maryland, is awarded a $4,396,000,000 cost-plus-fixed-fee, indefinite-delivery/indefinite-quantity contract for research, development, engineering, and test and evaluation for programs throughout the Department of Defense within its core competency areas including strategic systems test and evaluation; submarine security and survivability; space science and engineering; combat systems and guided missiles; air and missile defense and power projection; information technology, simulation, modeling, and operations analysis; and mission related research, development, test and evaluation. This contract includes options which, if exercised, would bring the cumulative value of this contract to $10,600,000,000. Work will be performed in Laurel, Maryland, and is expected to be completed by August 2027. If all options are exercised, work will continue through August 2032. Fiscal 2022 research, development, test and evaluation (Navy) funds in the amount of $6,803,376 will be obligated at time of award and will not expire at the end of the current fiscal year. This contract was not competitively procured in accordance with 10 U.S. Code 2304(c)(3)(B), as implemented in Defense Federal Acquisition Regulation 6.302-3 — industrial mobilization; engineering, developmental, or research capability; or expert services. The Naval Sea Systems Command, Washington, D.C., is the contracting activity (N00024-22-D-6404).</t>
+  </si>
+  <si>
+    <t>BAE Systems Land &amp; Armaments L.P., Sterling Heights, Michigan, was awarded a $278,182,786 firm-fixed-price contract for production units, spare parts and contractor logistics support for the Cold Weather All-Terrain Vehicle. Bids were solicited via the internet with two received. Work locations and funding will be determined with each order, with an estimated completion date of Aug. 19, 2029. U.S. Army Contracting Command, Detroit Arsenal, Michigan, is the contracting activity (W56HZV-22-D-0082).</t>
+  </si>
+  <si>
+    <t>Day and Zimmermann Inc., Parsons, Kansas (W52P1J-22-D-0031); and General Dynamics Ordnance and Tactical Systems Canada Inc., Repentigny, Quebec, Canada (W52P1J-22-D-0032), will compete for each order of the $372,589,589 firm-fixed-price contract to load, assemble and package high-explosive mortar cartridges. Bids were solicited via the internet with three received. Work locations and funding will be determined with each order, with an estimated completion date of Aug. 18, 2027. U.S. Army Contracting Command, Rock Island Arsenal, Illinois, is the contracting activity.</t>
+  </si>
+  <si>
+    <t>Oshkosh Defense LLC, Oshkosh, Wisconsin, was awarded a $22,639,245 modification (P00315) to contract W56HZV-20-C-0050 to exercise available options to support the fielding of Joint Light Tactical Vehicles, packaged and installed kits, and trailers. Work will be performed in Oshkosh, Wisconsin, with an estimated completion date of Sept. 30, 2024. Fiscal 2020 other procurement, Army funds and fiscal 2020 and 2022 Marine Corps procurement funds in the amount of $22,639,245 were obligated at the time of the award. U.S. Army Contracting Command, Detroit Arsenal, Michigan, is the contracting activity.</t>
+  </si>
+  <si>
+    <t>Advanced Systems and Software Engineering Technologies LLC,* Ridgecrest, California, is awarded a $292,310,598 cost-plus-fixed-fee, cost reimbursable, indefinite-delivery/indefinite-quantity contract. This contract provides system engineering, analysis, research, development, logistics, configuration and data management services in support of the Naval Air Warfare Center Weapons Division’s aircraft integrated product teams for the development, integration, test, evaluation, and fielding of new and upgraded capabilities to Navy aircraft, to include F/A-18, EA-18G, F-35, AV-8B, AH-1/UH-1 aircraft and unmanned aerial systems. Work will be performed in China Lake, California (86.5%); Eglin Air Force Base, Florida (7%); Ridgecrest, California (5%); Point Mugu, California (1%); and various locations within the continental U.S. (0.5%), and is expected to be completed in October 2027. No funds will be obligated at the time of award; funds will be obligated on individual orders as they are issued.  This contract was competitively procured as a small business set-aside; three offers were received. The Naval Air Warfare Center Weapons Division, China Lake, California, is the contracting activity (N6893622D0038).</t>
+  </si>
+  <si>
+    <t>Lockheed Martin Rotary and Mission Systems, Manassas, Virginia, is awarded a $78,423,685 cost-plus-incentive-fee and cost reimbursement contract modification to previously awarded contract N00024-17-C-6259 to exercise options for engineering design and development.  Work will be performed in Manassas, Virginia (65%); Clearwater, Florida (32%); Syracuse, New York (2%); and Marion, Florida (1%), and is expected to be completed by December 2023. Fiscal 2022 other procurement (Navy) funds in the amount of $58,919 will be obligated at time of award, and will not expire at the end of the current fiscal year. The Naval Sea Systems Command, Washington Navy Yard, Washington, D.C., is the contracting activity.</t>
+  </si>
+  <si>
+    <t>Lockheed Martin Corp., Rotary and Mission Systems, Moorestown, New Jersey, is awarded a $13,542,835 cost-plus-incentive-fee modification to previously awarded contract N00024-13-C-5116 for AEGIS combat system engineering agent efforts, which include the design, development, integration, test and delivery of Advanced Capability Build 20. Work will be performed in Moorestown, New Jersey, and is expected to be completed by May 2023. Fiscal 2019 shipbuilding and conversion (Navy) funds in the amount of $7,220,634 (53%); fiscal 2018 shipbuilding and conversion (Navy) funds in the amount of $5,883,043 (44%); and fiscal 2021 shipbuilding and conversion (Navy) funds in the amount of $439,158 (3%) will be obligated at time of award and do not expire at the end of the current fiscal year. The Naval Sea Systems Command, Washington, D.C., is the contracting activity.</t>
+  </si>
+  <si>
+    <t>AM General LLC, South Bend, Indiana, was awarded a $732,741,016 modification (P00042) to contract W56HZV-17-D-0071 for production of High Mobility Multipurpose Wheeled Vehicle Expanded Capacity Vehicle variants. Bids were solicited via the internet with one received. Work locations and funding will be determined with each order, with an estimated completion date of Dec. 31, 2024. U.S. Army Contracting Command, Detroit Arsenal, Michigan, is the contracting activity. (Awarded Aug. 19, 2022)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAE Systems Land &amp; Armaments L.P., York, Pennsylvania, was awarded a $49,689,943 cost-no-fee contract for Bradley Fighting Vehicles. Bids were solicited via the internet with one received. Work will be performed in York, Pennsylvania, with an estimated completion date of Aug. 23, 2023. Fiscal 2022 weapons and tracked combat vehicle procurement, Army funds in the amount of $49,689,943 were obligated at the time of the award. U.S. Army Contracting Command, Detroit Arsenal, Michigan, is the contracting activity (W56HZV-22-F-0413). </t>
+  </si>
+  <si>
+    <t>Charles Reed Knight Jr., doing business as Knight's Armament Co.,* Titusville, Florida, was awarded a $14,998,849 modification (P00004) to contract W15QKN-20-D-0044 for the M110 Semi-Automatic Sniper System and various M110 configurations. Bids were solicited via the internet with one received. Work locations and funding will be determined with each order, with an estimated completion date of Sept. 25, 2025. U.S. Army Contracting Command, Newark, New Jersey, is the contracting activity.</t>
+  </si>
+  <si>
+    <t>L-3 Communication Integrated Systems L.P., Greenville, Texas, has been awarded a $96,538,833 cost-plus-fixed-fee and firm-fixed-price contract action for the procurement and fabrication of Group B Ground and System Integration Lab material. Work will be performed in Greenville, Texas, and is expected be complete by June 30, 2024. This contract involved 100% foreign military sales. This award is the result of a sole source acquisition. Foreign Military Sales funds in the amount of $96,538,833 are being obligated at the time of award. The 645th Aeronautical Systems Group, Wright-Patterson Air Force Base, Ohio, is the contracting activity (FA8620-21-G-4027 / FA8620-22-F-4831).</t>
+  </si>
+  <si>
+    <t>Dyncorp International LLC, Fort Worth, Texas, is awarded a $30,268,759 firm-fixed-price, cost-plus-fixed-fee, cost reimbursable modification (P00071) to a previously awarded contract (N6893617C0052). This modification exercises an option to extend services to provide continued organizational level aircraft maintenance and logistics support for aircrew systems and subsystems, search and rescue equipment, and support equipment for the P-3 Orion, C-130 Hercules, F/A-18 Hornet, E/A-18 Growler, AV-8B Harrier II, H-60 Seahawk, and E-2D Hawkeye aircraft in support of the Naval Air Warfare Center Weapons Division (NAWCWD) Naval Test Wing Pacific. Work will be performed in China Lake, California (60%); Point Mugu, California (30 %); Hickam Air Force Base, Hawaii (2%); Lemoore, California (2%); Patrick AFB, Florida (1%); Holloman AFB, New Mexico (1%); Patuxent River, Maryland, (1%); Yuma, Arizona (1%); Miramar, California (1%); and North Island, California (1%), and is expected to be completed in April 2023. Working capital (Navy) funds in the amount of $10,113,024 will be obligated at time of award, none of which will expire at the end of the current fiscal year. The NAWCWD, Point Mugu, California, is the contracting activity.</t>
+  </si>
+  <si>
+    <t>Grove U.S. LLC, Shady Grove, Pennsylvania, has been awarded a maximum $266,866,453 fixed-price with economic-price-adjustment, indefinite-delivery requirements contract for commercial cranes. This was a competitive acquisition with one response received. This is a five-year contract with no option periods. Other contracts are expected to be awarded under this solicitation (SPE8EC-21-R-0003) and awardees will compete for a portion of the maximum dollar value. The ordering period end date is Aug. 23, 2027. Using military services are Army, Navy and Marine Corps. Type of appropriation is fiscal 2022 through 2027 defense working capital funds. The contracting activity is the Defense Logistics Agency Troop Support, Philadelphia, Pennsylvania (SPE8EC-22-D-0011).</t>
+  </si>
+  <si>
+    <t>General Dynamics Land Systems Inc., Sterling Heights, Michigan, was awarded a $25,999,349 modification (P00015) to contract W56HZV-22-C-0012 for Abrams systems technical support. Work will be performed in Sterling Heights, Michigan, with an estimated completion date of Sept. 30, 2025. Fiscal 2020 other procurement, Army funds in the amount of $25,999,349 were obligated at the time of the award. U.S. Army Contracting Command, Detroit Arsenal, Michigan, is the contracting activity.</t>
+  </si>
+  <si>
+    <t>Raytheon Co., Poulsbo, Washington, is awarded an $18,543,264 cost-plus-fixed-fee and firm-fixed-price, indefinite delivery/indefinite-quantity requirements contract for depot-level support, maintenance and modifications support of the AN/AQS-20 Sonar Mine Detecting Set, and the AN/MHP-20 Deploy and Retrieve system for the AN/AQS-20 System. The AN/AQS-20 is a towed, mine hunting and identification system for Program Executive Office, Unmanned and Small Combatants. This contract includes options which, if exercised, would bring the cumulative value of this contract to $91,706,089. Work will be performed in Portsmouth, Rhode Island (65%); Poulsbo, Washington (30%); and Panama City, Florida (5%); and is expected to be completed by August 2023. If all options are exercised, work will continue through August 2027. No funding will be obligated at time of award. This contract was not competitively procured in accordance with Defense Federal Acquisition Regulation 6.302-1(a)(2)(ii) and (iii) – circumstances permitting other than full and open competition when only one source and no supplies or services will satisfy agency requirements. Naval Surface Warfare Center, Panama City Division, Panama City, Florida, is the contracting activity (N6133122D0004).</t>
+  </si>
+  <si>
+    <t>ATAP Inc., Eastaboga, Alabama (FA8517-22-D-0009); Boneal Inc., Means, Kentucky (FA8517-22-D-0012); and F3 Logistics LLC, Warner Robins, Georgia (FA8517-22-D-0013), have been awarded a multiple award, small business set-aside contract ceiling of $533,500,000 for the sourcing of support equipment (SE) with a unit price of $50,000, or less. This contract provides for the sourcing, acquiring, and delivery of a broad range of ground and aircraft SE items. Work will be performed at various locations, and is expected to be complete by Aug. 25, 2032. This contract involves Army, Navy and Foreign Military Sales to be determined as needed on individual delivery orders. This award is the result of a competitive acquisition with one solicitation posted to sam.gov and nine offers were received. Fiscal 2020 Air Force procurement funds in the amount of $13,646; and fiscal 2021 Air Force procurement funds in the amount of $16,597 are being obligated at the time of award. Air Force Sustainment Center, Robins Air Force Base, Georgia, is the contract activity.</t>
+  </si>
+  <si>
+    <t>Altamira Technologies Corp., McLean, Virginia, has been awarded a $280,000,000 modification (P00029) to a previously awarded, cost-plus-fixed-fee, firm-fixed-price, and cost-plus-incentive-fee, multiple award, indefinite-delivery/indefinite-quantity contract (FA8604-15-D-7977). The contract provides for Advanced Technical Exploitation Program II support for geospatial intelligence (GEOINT) research and development; and measurement and signature intelligence (MASINT) research and development; GEOINT and MASINT operational production support; and other mission areas. Work will be performed at the National Air and Space Intelligence Center, Wright-Patterson Air Force Base, Ohio, and other locations, and is expected to be completed by Oct. 2, 2024. The contract modification provides for an increase to the overall ceiling of the contract; and an extension of the ordering period by one year. This modification increases the estimated contract value from $960,000,000 to $1,240,000,000. Total cumulative face value of the contract is $1,240,000,000. No funds will be obligated at the time of award. Air Force Life Cycle Management Center, Wright-Patterson AFB, Ohio, is the contracting activity.</t>
+  </si>
+  <si>
+    <t>Radiance Technologies, Huntsville, Alabama, has been awarded a $280,000,000 modification (P00025) to a previously awarded, cost-plus-fixed-fee, firm-fixed-price, and cost-plus-incentive-fee, multiple award, indefinite-delivery/indefinite-quantity contract (FA8604-15-D-7976). The contract provides for Advanced Technical Exploitation Program II support for geospatial intelligence (GEOINT) research and development; and measurement and signature intelligence (MASINT) research and development; GEOINT and MASINT operational production support; and other mission areas. Work will be performed at the National Air and Space Intelligence Center, Wright-Patterson Air Force Base, Ohio, and other locations,  and is expected to be completed by Oct. 2, 2024. The contract modification provides for an increase to the overall ceiling of the contract; and an extension of the ordering period by one year. This modification increases the estimated contract value from $960,000,000 to $1,240,000,000. Total cumulative face value of the contract is $1,240,000,000. No funds will be obligated at the time of award. Air Force Life Cycle Management Center, Wright-Patterson AFB, Ohio, is the contracting activity.</t>
+  </si>
+  <si>
+    <t>Centauri LLC, Chantilly, Virginia, has been awarded a $280,000,000 modification (P00031) to a previously awarded, cost-plus-fixed-fee, firm-fixed-price, and cost-plus-incentive-fee, multiple award, indefinite-delivery/indefinite-quantity contract (FA8604-15-D-7975). The contract provides for Advanced Technical Exploitation Program II support for geospatial intelligence (GEOINT) research and development; and measurement and signature intelligence (MASINT) research and development; GEOINT and MASINT operational production support; and other mission areas. Work will be performed at the National Air and Space Intelligence Center, Wright-Patterson Air Force Base, Ohio, and other locations, and is expected to be completed by Oct. 2, 2024. The contract modification provides for an increase to the overall ceiling of the contract; and an extension of the ordering period by one year. This modification increases the estimated contract value from $960,000,000 to $1,240,000,000. Total cumulative face value of the contract is $1,240,000,000. No funds will be obligated at the time of award. Air Force Life Cycle Management Center, Wright-Patterson AFB, Ohio, is the contracting activity.</t>
+  </si>
+  <si>
+    <t>Lockheed Martin Corp., Orlando, Florida, has been awarded a $15,000,000 firm-fixed-price contract for Stand-in Attack Weapon Phase 1.2. This contract provides for all activities associated with the statement of objectives as well as the contractor's proposal for Phase 1.2. Work will be performed in Orlando, Florida, and is expected to be complete by Feb. 25, 2023. This award is the result of a sole source acquisition. Fiscal 2022 Air Force research and development funds in the amount of $15,000,000 are being obligated at the time of award. Air Force Life Cycle Management Center, Eglin Air Force Base, Florida, is the contracting activity (FA8656-22-F-1036).</t>
+  </si>
+  <si>
+    <t>Northrop Grumman Systems Corp., Northridge, California, has been awarded a $15,000,000 firm-fixed-price contract for Stand-in Attack Weapon Phase 1.2. This contract provides for all activities associated with the statement of objectives as well as the contractor's proposal for Phase 1.2. Work will be performed in Northridge, California, and is expected to be complete by Feb. 25, 2023. This award is the result of a sole source acquisition. Fiscal 2022 Air Force research and development funds in the amount of $15,000,000 are being obligated at the time of award. Air Force Life Cycle Management Center, Eglin Air Force Base, Florida, is the contracting activity (FA8656-22-F-1051).</t>
+  </si>
+  <si>
+    <t>L3Harris Mustang Technology Group LP, Plano, Texas, has been awarded a $14,579,829 firm-fixed-price contract for Stand-in Attack Weapon Phase 1.2. This contract provides for all activities associated with the statement of objectives as well as the contractor's proposal for Phase 1.2. Work will be performed in Plano, Texas, and is expected to be complete by Feb. 25, 2023. This award is the result of a sole source acquisition. Fiscal 2022 Air Force research and development funds in the amount of $14,579,829 are being obligated at the time of award. Air Force Life Cycle Management Center, Eglin Air Force Base, Florida, is the contracting activity (FA8656-22-F-1031).</t>
+  </si>
+  <si>
+    <t>Raytheon Missiles and Defense, Tucson, Arizona, has been awarded a non-competitive, firm-fixed-price modification (P00021) to previously awarded contract (FA8675-21-C-0034) in the amount of $8,837,522 for Advanced Medium Range Air-to-Air Missile Production Lot 35 Rectifier Filter Assembly Captive Air Training Missile Retrofit effort. Work will be performed in Tucson, Arizona, and is expected to be completed by May 30, 2026. Fiscal 2021 Air Force missile procurement funds in the amount of $4,485,281; fiscal 2021 Navy weapons procurement funds in the amount of $3,865,690; and Foreign Military Sales funds in the amount of $486,551 are being obligated at the time of award. Air Force Life Cycle Management Center, Air Dominance Division Contracting Office, Eglin Air Force Base, Florida, is the contracting activity.</t>
+  </si>
+  <si>
+    <t>Raytheon Co., Tewksbury, Massachusetts, was awarded a $182,295,333 firm-fixed-price contract for the procurement of National Advanced Surface-to-Air Missile Systems. Bids were solicited via the internet with one received. Work will be performed in Tewksbury, Massachusetts, with an estimated completion date of Aug. 23, 2024. Fiscal 2022 Ukraine Security Assistance Initiative funds in the amount of $182,295,333 were obligated at the time of the award. U.S. Army Contracting Command, Redstone Arsenal, Alabama, is the contracting activity (W31P4Q-22-C-0068).</t>
+  </si>
+  <si>
+    <t>MORSECORP Inc., Cambridge, Massachusetts, was awarded a $44,890,537 firm-fixed-price contract for advanced test and evaluation of artificial intelligence and machine learning progress algorithms. Bids were solicited via the internet with 999 received. Work will be performed in Cambridge, Massachusetts, with an estimated completion date of Aug. 31, 2025. Fiscal 2022 research, development, test, and evaluation, Army funds in the amount of $3,195,693 were obligated at the time of the award. U.S. Army Contracting Command, Aberdeen Proving Ground, Maryland, is the contracting activity (W911QX-22-C-0029).</t>
+  </si>
+  <si>
+    <t>https://www.war.gov/News/Contracts/Contract/Article/3134553/</t>
+  </si>
+  <si>
+    <t>https://www.war.gov/News/Contracts/Contract/Article/3136011/</t>
+  </si>
+  <si>
+    <t>https://www.war.gov/News/Contracts/Contract/Article/3137139/</t>
+  </si>
+  <si>
+    <t>https://www.war.gov/News/Contracts/Contract/Article/3138645/</t>
+  </si>
+  <si>
+    <t>https://www.war.gov/News/Contracts/Contract/Article/3140102/</t>
+  </si>
+  <si>
+    <t>https://www.war.gov/News/Contracts/Contract/Article/3141819/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
-  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="14"/>
@@ -147,10 +228,6 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
@@ -159,6 +236,7 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Hyperlink 2" xfId="5" xr:uid="{00F41B89-8AB3-4DEC-B344-7FC2A8535877}"/>
@@ -499,20 +577,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C32A2EF0-6AE5-4C15-9CF0-4CEB2FFB30C8}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B2:B6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.9140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.08203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -523,59 +601,334 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="3">
+        <v>44792</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="3">
+        <v>44792</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="3">
+        <v>44792</v>
+      </c>
+      <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1">
-        <v>44350</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="3">
+        <v>44792</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="3">
+        <v>44792</v>
+      </c>
+      <c r="C6" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1">
-        <v>44351</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1">
-        <v>44351</v>
-      </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="3">
+        <v>44795</v>
+      </c>
+      <c r="C7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1">
-        <v>44355</v>
-      </c>
-      <c r="C5" s="2" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="3">
+        <v>44795</v>
+      </c>
+      <c r="C8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1">
-        <v>44355</v>
-      </c>
-      <c r="C6" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="3">
+        <v>44796</v>
+      </c>
+      <c r="C9" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="3">
+        <v>44796</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="3">
+        <v>44796</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="3">
+        <v>44796</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="3">
+        <v>44796</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="3">
+        <v>44797</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="3">
+        <v>44797</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="3">
+        <v>44797</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="3">
+        <v>44797</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="3">
+        <v>44797</v>
+      </c>
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="3">
+        <v>44798</v>
+      </c>
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="3">
+        <v>44798</v>
+      </c>
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="3">
+        <v>44798</v>
+      </c>
+      <c r="C21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="3">
+        <v>44799</v>
+      </c>
+      <c r="C22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="3">
+        <v>44799</v>
+      </c>
+      <c r="C23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="3">
+        <v>44799</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="3">
+        <v>44799</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="3">
+        <v>44799</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="3">
+        <v>44799</v>
+      </c>
+      <c r="C27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="3">
+        <v>44799</v>
+      </c>
+      <c r="C28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="3">
+        <v>44799</v>
+      </c>
+      <c r="C29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="3">
+        <v>44799</v>
+      </c>
+      <c r="C30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="3">
+        <v>44799</v>
+      </c>
+      <c r="C31" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/data/source_file.xlsx
+++ b/data/source_file.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mukeshkr\Agentic-AI-Defense-Data-Extraction\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD7C5B7-1011-4BC3-B9CE-D5AF0FF40611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A491FE0-6588-4C29-A6C8-06B3B0B69A6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1789C02F-0F05-431D-B1D8-FBD75DE85A9F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1789C02F-0F05-431D-B1D8-FBD75DE85A9F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="30">
   <si>
     <t>Source URL</t>
   </si>
@@ -47,119 +47,95 @@
     <t>Contract Description</t>
   </si>
   <si>
-    <t>BAE Systems - Norfolk Ship Repair, Norfolk, Virginia, is awarded a $107,736,087, firm-fixed-price contract for the execution of the USS Ross (DDG 71) fiscal 2023 extended dry-docking selected restricted availability. This availability will include a combination of maintenance, modernization and repair of the USS Ross. This contract includes options which, if exercised, would bring the cumulative value of this contract to $123,876,183. Work will be performed in Norfolk, Virginia, and is expected to be completed by March 2024. Fiscal 2022 operations and maintenance (Navy) funds in the amount of $93,897,036 (87%); and fiscal 2022 other procurement (Navy) funds in the amount of $13,839,051 (13%) will be obligated at time of award, of which $93,897,036 will expire at the end of the current fiscal year. This contract was competitively procured using full and open competition via the System for Award Management website. Competitive proposals were received in response to Solicitation Number (N00024-22-R-4422). The Naval Sea Systems Command, Washington, D.C., is the contracting activity (N00024-22-C-4422).</t>
-  </si>
-  <si>
-    <t>The Boeing Co., St. Louis, Missouri, is awarded a $25,648,020 fixed-firm-price, cost-plus-fixed-fee and cost-only, full rate production contract for the production of High-Altitude Anti-Submarine Warfare Weapon Capability Air Launch Accessory equipment, related engineering and hardware repair services, and other direct cost support. This contract includes options, which, if exercised, would bring the cumulative value of this contract to $121,426,700. Work will be performed in St. Charles, Missouri (44%); St. Louis, Missouri (26%); Salt Lake City, Utah (12%); Minneapolis, Minnesota (4%); Joplin, Missouri (2%),; Piedmont, Missouri (2%); Orlando, Florida (2%); Cedar Rapids, Iowa (2%); Chandler, Arizona (1%); Berea, Ohio (1%); Wichita, Kansas (1%); Albuquerque, New Mexico (1%); Lexington, Kentucky, (1%); and Chatsworth, California (1%), and is expected to be completed by September 2024. If all options are exercised, work will continue through September 2030. Fiscal 2020 weapons procurement (Navy) funds in the amount of $11,535,520 (98%); and fiscal 2021 weapons procurement (Navy) funds in the amount of $279,074 (2%) funding will be obligated at time of award, of which $11,535,520 will expire at the end of the current fiscal year. This contract was not competitively procured in accordance with 10 U.S. Code 2304(c) (1) — only one responsible source and no other supplies or services will satisfy agency requirements. The Naval Sea Systems Command, Washington, D.C., is the contracting activity (N00024-22-C-6407).</t>
-  </si>
-  <si>
-    <t>Intermat,* Biddeford, Maine, is awarded a $17,736,279 firm-fixed-price, cost-plus-fixed-fee, and cost-only indefinite-delivery/indefinite-quantity contract for the delivery of Submarine Launched Ballistic Missile nose-tip materials. This contract does not include options. This contract combines purchases for the Navy (82.23%) and the government of the United Kingdom (17.77%) under the Foreign Military Sales program. Work will be performed in Biddeford, Maine, and is expected to be completed by July 2027. Fiscal 2022 Weapons Procurement (Navy) funds in the amount of $1,301,611 will be obligated at time of award. This contract was not competitively procured in accordance with 10 U.S. Code 2304(c)(1) [now 10 U.S. Code 3204(a)(1)] — only one responsible source and no other type of supplies or services will satisfy agency requirements. The Naval Surface Warfare Center Dahlgren Division, Dahlgren, Virginia, is the contracting activity (N0017822D4404).</t>
-  </si>
-  <si>
-    <t>Raytheon Co., Tewksbury, Massachusetts, is awarded an $11,172,229 firm-fixed-price modification to previously awarded contract N00024-22-C-5522 for Total Ship Computing Environment Lab hardware for modernization/technical refresh and Conventional Prompt Strike to support DDG 1000-class combat system activation, sustainment and modernization.  Work will be performed in Nashua, New Hampshire (92%); Portsmouth, Rhode Island (4%); and  Tewksbury, Massachusetts (4%), and is expected to be completed by November 2023. Fiscal 2022 other procurement (Navy) funds in the amount of $9,333,203 (84%); and fiscal 2022 research, development, test and evaluation (Navy) funds in the amount of $1,839,026 (16%) will be obligated at time of award and will not expire at the end of the current fiscal year. The Naval Sea Systems Command, Washington, D.C., is the contracting activity.</t>
-  </si>
-  <si>
-    <t>General Atomics, San Diego, California, is awarded an $8,837,078 firm-fixed-price order (N0001922F2258) against a previously issued basic ordering agreement (N0001921G0014). This order provides for the development of a two or three launch motor subsystem, two energy storage group tailored configuration of the Electromagnetic Aircraft Launch System (EMALS) and a three wire, six energy absorber subsystem Advanced Arresting Gear System configuration that are compatible with the government of France’s future aircraft carrier and provides acceptable mission capability. Work will be performed in San Diego, California (98.85%); and Tupelo, Mississippi (1.15%), and is expected to be completed in June 2023. Foreign Military Sales customer funds in the amount of $8,837,078 will be obligated at the time of award, none of which will expire at the end of the current fiscal year. The Naval Air Systems Command, Patuxent River, Maryland, is the contracting activity.</t>
-  </si>
-  <si>
-    <t>The Johns Hopkins University Applied Physics Laboratory, Laurel, Maryland, is awarded a $4,396,000,000 cost-plus-fixed-fee, indefinite-delivery/indefinite-quantity contract for research, development, engineering, and test and evaluation for programs throughout the Department of Defense within its core competency areas including strategic systems test and evaluation; submarine security and survivability; space science and engineering; combat systems and guided missiles; air and missile defense and power projection; information technology, simulation, modeling, and operations analysis; and mission related research, development, test and evaluation. This contract includes options which, if exercised, would bring the cumulative value of this contract to $10,600,000,000. Work will be performed in Laurel, Maryland, and is expected to be completed by August 2027. If all options are exercised, work will continue through August 2032. Fiscal 2022 research, development, test and evaluation (Navy) funds in the amount of $6,803,376 will be obligated at time of award and will not expire at the end of the current fiscal year. This contract was not competitively procured in accordance with 10 U.S. Code 2304(c)(3)(B), as implemented in Defense Federal Acquisition Regulation 6.302-3 — industrial mobilization; engineering, developmental, or research capability; or expert services. The Naval Sea Systems Command, Washington, D.C., is the contracting activity (N00024-22-D-6404).</t>
-  </si>
-  <si>
-    <t>BAE Systems Land &amp; Armaments L.P., Sterling Heights, Michigan, was awarded a $278,182,786 firm-fixed-price contract for production units, spare parts and contractor logistics support for the Cold Weather All-Terrain Vehicle. Bids were solicited via the internet with two received. Work locations and funding will be determined with each order, with an estimated completion date of Aug. 19, 2029. U.S. Army Contracting Command, Detroit Arsenal, Michigan, is the contracting activity (W56HZV-22-D-0082).</t>
-  </si>
-  <si>
-    <t>Day and Zimmermann Inc., Parsons, Kansas (W52P1J-22-D-0031); and General Dynamics Ordnance and Tactical Systems Canada Inc., Repentigny, Quebec, Canada (W52P1J-22-D-0032), will compete for each order of the $372,589,589 firm-fixed-price contract to load, assemble and package high-explosive mortar cartridges. Bids were solicited via the internet with three received. Work locations and funding will be determined with each order, with an estimated completion date of Aug. 18, 2027. U.S. Army Contracting Command, Rock Island Arsenal, Illinois, is the contracting activity.</t>
-  </si>
-  <si>
-    <t>Oshkosh Defense LLC, Oshkosh, Wisconsin, was awarded a $22,639,245 modification (P00315) to contract W56HZV-20-C-0050 to exercise available options to support the fielding of Joint Light Tactical Vehicles, packaged and installed kits, and trailers. Work will be performed in Oshkosh, Wisconsin, with an estimated completion date of Sept. 30, 2024. Fiscal 2020 other procurement, Army funds and fiscal 2020 and 2022 Marine Corps procurement funds in the amount of $22,639,245 were obligated at the time of the award. U.S. Army Contracting Command, Detroit Arsenal, Michigan, is the contracting activity.</t>
-  </si>
-  <si>
-    <t>Advanced Systems and Software Engineering Technologies LLC,* Ridgecrest, California, is awarded a $292,310,598 cost-plus-fixed-fee, cost reimbursable, indefinite-delivery/indefinite-quantity contract. This contract provides system engineering, analysis, research, development, logistics, configuration and data management services in support of the Naval Air Warfare Center Weapons Division’s aircraft integrated product teams for the development, integration, test, evaluation, and fielding of new and upgraded capabilities to Navy aircraft, to include F/A-18, EA-18G, F-35, AV-8B, AH-1/UH-1 aircraft and unmanned aerial systems. Work will be performed in China Lake, California (86.5%); Eglin Air Force Base, Florida (7%); Ridgecrest, California (5%); Point Mugu, California (1%); and various locations within the continental U.S. (0.5%), and is expected to be completed in October 2027. No funds will be obligated at the time of award; funds will be obligated on individual orders as they are issued.  This contract was competitively procured as a small business set-aside; three offers were received. The Naval Air Warfare Center Weapons Division, China Lake, California, is the contracting activity (N6893622D0038).</t>
-  </si>
-  <si>
-    <t>Lockheed Martin Rotary and Mission Systems, Manassas, Virginia, is awarded a $78,423,685 cost-plus-incentive-fee and cost reimbursement contract modification to previously awarded contract N00024-17-C-6259 to exercise options for engineering design and development.  Work will be performed in Manassas, Virginia (65%); Clearwater, Florida (32%); Syracuse, New York (2%); and Marion, Florida (1%), and is expected to be completed by December 2023. Fiscal 2022 other procurement (Navy) funds in the amount of $58,919 will be obligated at time of award, and will not expire at the end of the current fiscal year. The Naval Sea Systems Command, Washington Navy Yard, Washington, D.C., is the contracting activity.</t>
-  </si>
-  <si>
-    <t>Lockheed Martin Corp., Rotary and Mission Systems, Moorestown, New Jersey, is awarded a $13,542,835 cost-plus-incentive-fee modification to previously awarded contract N00024-13-C-5116 for AEGIS combat system engineering agent efforts, which include the design, development, integration, test and delivery of Advanced Capability Build 20. Work will be performed in Moorestown, New Jersey, and is expected to be completed by May 2023. Fiscal 2019 shipbuilding and conversion (Navy) funds in the amount of $7,220,634 (53%); fiscal 2018 shipbuilding and conversion (Navy) funds in the amount of $5,883,043 (44%); and fiscal 2021 shipbuilding and conversion (Navy) funds in the amount of $439,158 (3%) will be obligated at time of award and do not expire at the end of the current fiscal year. The Naval Sea Systems Command, Washington, D.C., is the contracting activity.</t>
-  </si>
-  <si>
-    <t>AM General LLC, South Bend, Indiana, was awarded a $732,741,016 modification (P00042) to contract W56HZV-17-D-0071 for production of High Mobility Multipurpose Wheeled Vehicle Expanded Capacity Vehicle variants. Bids were solicited via the internet with one received. Work locations and funding will be determined with each order, with an estimated completion date of Dec. 31, 2024. U.S. Army Contracting Command, Detroit Arsenal, Michigan, is the contracting activity. (Awarded Aug. 19, 2022)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BAE Systems Land &amp; Armaments L.P., York, Pennsylvania, was awarded a $49,689,943 cost-no-fee contract for Bradley Fighting Vehicles. Bids were solicited via the internet with one received. Work will be performed in York, Pennsylvania, with an estimated completion date of Aug. 23, 2023. Fiscal 2022 weapons and tracked combat vehicle procurement, Army funds in the amount of $49,689,943 were obligated at the time of the award. U.S. Army Contracting Command, Detroit Arsenal, Michigan, is the contracting activity (W56HZV-22-F-0413). </t>
-  </si>
-  <si>
-    <t>Charles Reed Knight Jr., doing business as Knight's Armament Co.,* Titusville, Florida, was awarded a $14,998,849 modification (P00004) to contract W15QKN-20-D-0044 for the M110 Semi-Automatic Sniper System and various M110 configurations. Bids were solicited via the internet with one received. Work locations and funding will be determined with each order, with an estimated completion date of Sept. 25, 2025. U.S. Army Contracting Command, Newark, New Jersey, is the contracting activity.</t>
-  </si>
-  <si>
-    <t>L-3 Communication Integrated Systems L.P., Greenville, Texas, has been awarded a $96,538,833 cost-plus-fixed-fee and firm-fixed-price contract action for the procurement and fabrication of Group B Ground and System Integration Lab material. Work will be performed in Greenville, Texas, and is expected be complete by June 30, 2024. This contract involved 100% foreign military sales. This award is the result of a sole source acquisition. Foreign Military Sales funds in the amount of $96,538,833 are being obligated at the time of award. The 645th Aeronautical Systems Group, Wright-Patterson Air Force Base, Ohio, is the contracting activity (FA8620-21-G-4027 / FA8620-22-F-4831).</t>
-  </si>
-  <si>
-    <t>Dyncorp International LLC, Fort Worth, Texas, is awarded a $30,268,759 firm-fixed-price, cost-plus-fixed-fee, cost reimbursable modification (P00071) to a previously awarded contract (N6893617C0052). This modification exercises an option to extend services to provide continued organizational level aircraft maintenance and logistics support for aircrew systems and subsystems, search and rescue equipment, and support equipment for the P-3 Orion, C-130 Hercules, F/A-18 Hornet, E/A-18 Growler, AV-8B Harrier II, H-60 Seahawk, and E-2D Hawkeye aircraft in support of the Naval Air Warfare Center Weapons Division (NAWCWD) Naval Test Wing Pacific. Work will be performed in China Lake, California (60%); Point Mugu, California (30 %); Hickam Air Force Base, Hawaii (2%); Lemoore, California (2%); Patrick AFB, Florida (1%); Holloman AFB, New Mexico (1%); Patuxent River, Maryland, (1%); Yuma, Arizona (1%); Miramar, California (1%); and North Island, California (1%), and is expected to be completed in April 2023. Working capital (Navy) funds in the amount of $10,113,024 will be obligated at time of award, none of which will expire at the end of the current fiscal year. The NAWCWD, Point Mugu, California, is the contracting activity.</t>
-  </si>
-  <si>
-    <t>Grove U.S. LLC, Shady Grove, Pennsylvania, has been awarded a maximum $266,866,453 fixed-price with economic-price-adjustment, indefinite-delivery requirements contract for commercial cranes. This was a competitive acquisition with one response received. This is a five-year contract with no option periods. Other contracts are expected to be awarded under this solicitation (SPE8EC-21-R-0003) and awardees will compete for a portion of the maximum dollar value. The ordering period end date is Aug. 23, 2027. Using military services are Army, Navy and Marine Corps. Type of appropriation is fiscal 2022 through 2027 defense working capital funds. The contracting activity is the Defense Logistics Agency Troop Support, Philadelphia, Pennsylvania (SPE8EC-22-D-0011).</t>
-  </si>
-  <si>
-    <t>General Dynamics Land Systems Inc., Sterling Heights, Michigan, was awarded a $25,999,349 modification (P00015) to contract W56HZV-22-C-0012 for Abrams systems technical support. Work will be performed in Sterling Heights, Michigan, with an estimated completion date of Sept. 30, 2025. Fiscal 2020 other procurement, Army funds in the amount of $25,999,349 were obligated at the time of the award. U.S. Army Contracting Command, Detroit Arsenal, Michigan, is the contracting activity.</t>
-  </si>
-  <si>
-    <t>Raytheon Co., Poulsbo, Washington, is awarded an $18,543,264 cost-plus-fixed-fee and firm-fixed-price, indefinite delivery/indefinite-quantity requirements contract for depot-level support, maintenance and modifications support of the AN/AQS-20 Sonar Mine Detecting Set, and the AN/MHP-20 Deploy and Retrieve system for the AN/AQS-20 System. The AN/AQS-20 is a towed, mine hunting and identification system for Program Executive Office, Unmanned and Small Combatants. This contract includes options which, if exercised, would bring the cumulative value of this contract to $91,706,089. Work will be performed in Portsmouth, Rhode Island (65%); Poulsbo, Washington (30%); and Panama City, Florida (5%); and is expected to be completed by August 2023. If all options are exercised, work will continue through August 2027. No funding will be obligated at time of award. This contract was not competitively procured in accordance with Defense Federal Acquisition Regulation 6.302-1(a)(2)(ii) and (iii) – circumstances permitting other than full and open competition when only one source and no supplies or services will satisfy agency requirements. Naval Surface Warfare Center, Panama City Division, Panama City, Florida, is the contracting activity (N6133122D0004).</t>
-  </si>
-  <si>
-    <t>ATAP Inc., Eastaboga, Alabama (FA8517-22-D-0009); Boneal Inc., Means, Kentucky (FA8517-22-D-0012); and F3 Logistics LLC, Warner Robins, Georgia (FA8517-22-D-0013), have been awarded a multiple award, small business set-aside contract ceiling of $533,500,000 for the sourcing of support equipment (SE) with a unit price of $50,000, or less. This contract provides for the sourcing, acquiring, and delivery of a broad range of ground and aircraft SE items. Work will be performed at various locations, and is expected to be complete by Aug. 25, 2032. This contract involves Army, Navy and Foreign Military Sales to be determined as needed on individual delivery orders. This award is the result of a competitive acquisition with one solicitation posted to sam.gov and nine offers were received. Fiscal 2020 Air Force procurement funds in the amount of $13,646; and fiscal 2021 Air Force procurement funds in the amount of $16,597 are being obligated at the time of award. Air Force Sustainment Center, Robins Air Force Base, Georgia, is the contract activity.</t>
-  </si>
-  <si>
-    <t>Altamira Technologies Corp., McLean, Virginia, has been awarded a $280,000,000 modification (P00029) to a previously awarded, cost-plus-fixed-fee, firm-fixed-price, and cost-plus-incentive-fee, multiple award, indefinite-delivery/indefinite-quantity contract (FA8604-15-D-7977). The contract provides for Advanced Technical Exploitation Program II support for geospatial intelligence (GEOINT) research and development; and measurement and signature intelligence (MASINT) research and development; GEOINT and MASINT operational production support; and other mission areas. Work will be performed at the National Air and Space Intelligence Center, Wright-Patterson Air Force Base, Ohio, and other locations, and is expected to be completed by Oct. 2, 2024. The contract modification provides for an increase to the overall ceiling of the contract; and an extension of the ordering period by one year. This modification increases the estimated contract value from $960,000,000 to $1,240,000,000. Total cumulative face value of the contract is $1,240,000,000. No funds will be obligated at the time of award. Air Force Life Cycle Management Center, Wright-Patterson AFB, Ohio, is the contracting activity.</t>
-  </si>
-  <si>
-    <t>Radiance Technologies, Huntsville, Alabama, has been awarded a $280,000,000 modification (P00025) to a previously awarded, cost-plus-fixed-fee, firm-fixed-price, and cost-plus-incentive-fee, multiple award, indefinite-delivery/indefinite-quantity contract (FA8604-15-D-7976). The contract provides for Advanced Technical Exploitation Program II support for geospatial intelligence (GEOINT) research and development; and measurement and signature intelligence (MASINT) research and development; GEOINT and MASINT operational production support; and other mission areas. Work will be performed at the National Air and Space Intelligence Center, Wright-Patterson Air Force Base, Ohio, and other locations,  and is expected to be completed by Oct. 2, 2024. The contract modification provides for an increase to the overall ceiling of the contract; and an extension of the ordering period by one year. This modification increases the estimated contract value from $960,000,000 to $1,240,000,000. Total cumulative face value of the contract is $1,240,000,000. No funds will be obligated at the time of award. Air Force Life Cycle Management Center, Wright-Patterson AFB, Ohio, is the contracting activity.</t>
-  </si>
-  <si>
-    <t>Centauri LLC, Chantilly, Virginia, has been awarded a $280,000,000 modification (P00031) to a previously awarded, cost-plus-fixed-fee, firm-fixed-price, and cost-plus-incentive-fee, multiple award, indefinite-delivery/indefinite-quantity contract (FA8604-15-D-7975). The contract provides for Advanced Technical Exploitation Program II support for geospatial intelligence (GEOINT) research and development; and measurement and signature intelligence (MASINT) research and development; GEOINT and MASINT operational production support; and other mission areas. Work will be performed at the National Air and Space Intelligence Center, Wright-Patterson Air Force Base, Ohio, and other locations, and is expected to be completed by Oct. 2, 2024. The contract modification provides for an increase to the overall ceiling of the contract; and an extension of the ordering period by one year. This modification increases the estimated contract value from $960,000,000 to $1,240,000,000. Total cumulative face value of the contract is $1,240,000,000. No funds will be obligated at the time of award. Air Force Life Cycle Management Center, Wright-Patterson AFB, Ohio, is the contracting activity.</t>
-  </si>
-  <si>
-    <t>Lockheed Martin Corp., Orlando, Florida, has been awarded a $15,000,000 firm-fixed-price contract for Stand-in Attack Weapon Phase 1.2. This contract provides for all activities associated with the statement of objectives as well as the contractor's proposal for Phase 1.2. Work will be performed in Orlando, Florida, and is expected to be complete by Feb. 25, 2023. This award is the result of a sole source acquisition. Fiscal 2022 Air Force research and development funds in the amount of $15,000,000 are being obligated at the time of award. Air Force Life Cycle Management Center, Eglin Air Force Base, Florida, is the contracting activity (FA8656-22-F-1036).</t>
-  </si>
-  <si>
-    <t>Northrop Grumman Systems Corp., Northridge, California, has been awarded a $15,000,000 firm-fixed-price contract for Stand-in Attack Weapon Phase 1.2. This contract provides for all activities associated with the statement of objectives as well as the contractor's proposal for Phase 1.2. Work will be performed in Northridge, California, and is expected to be complete by Feb. 25, 2023. This award is the result of a sole source acquisition. Fiscal 2022 Air Force research and development funds in the amount of $15,000,000 are being obligated at the time of award. Air Force Life Cycle Management Center, Eglin Air Force Base, Florida, is the contracting activity (FA8656-22-F-1051).</t>
-  </si>
-  <si>
-    <t>L3Harris Mustang Technology Group LP, Plano, Texas, has been awarded a $14,579,829 firm-fixed-price contract for Stand-in Attack Weapon Phase 1.2. This contract provides for all activities associated with the statement of objectives as well as the contractor's proposal for Phase 1.2. Work will be performed in Plano, Texas, and is expected to be complete by Feb. 25, 2023. This award is the result of a sole source acquisition. Fiscal 2022 Air Force research and development funds in the amount of $14,579,829 are being obligated at the time of award. Air Force Life Cycle Management Center, Eglin Air Force Base, Florida, is the contracting activity (FA8656-22-F-1031).</t>
-  </si>
-  <si>
-    <t>Raytheon Missiles and Defense, Tucson, Arizona, has been awarded a non-competitive, firm-fixed-price modification (P00021) to previously awarded contract (FA8675-21-C-0034) in the amount of $8,837,522 for Advanced Medium Range Air-to-Air Missile Production Lot 35 Rectifier Filter Assembly Captive Air Training Missile Retrofit effort. Work will be performed in Tucson, Arizona, and is expected to be completed by May 30, 2026. Fiscal 2021 Air Force missile procurement funds in the amount of $4,485,281; fiscal 2021 Navy weapons procurement funds in the amount of $3,865,690; and Foreign Military Sales funds in the amount of $486,551 are being obligated at the time of award. Air Force Life Cycle Management Center, Air Dominance Division Contracting Office, Eglin Air Force Base, Florida, is the contracting activity.</t>
-  </si>
-  <si>
-    <t>Raytheon Co., Tewksbury, Massachusetts, was awarded a $182,295,333 firm-fixed-price contract for the procurement of National Advanced Surface-to-Air Missile Systems. Bids were solicited via the internet with one received. Work will be performed in Tewksbury, Massachusetts, with an estimated completion date of Aug. 23, 2024. Fiscal 2022 Ukraine Security Assistance Initiative funds in the amount of $182,295,333 were obligated at the time of the award. U.S. Army Contracting Command, Redstone Arsenal, Alabama, is the contracting activity (W31P4Q-22-C-0068).</t>
-  </si>
-  <si>
-    <t>MORSECORP Inc., Cambridge, Massachusetts, was awarded a $44,890,537 firm-fixed-price contract for advanced test and evaluation of artificial intelligence and machine learning progress algorithms. Bids were solicited via the internet with 999 received. Work will be performed in Cambridge, Massachusetts, with an estimated completion date of Aug. 31, 2025. Fiscal 2022 research, development, test, and evaluation, Army funds in the amount of $3,195,693 were obligated at the time of the award. U.S. Army Contracting Command, Aberdeen Proving Ground, Maryland, is the contracting activity (W911QX-22-C-0029).</t>
-  </si>
-  <si>
-    <t>https://www.war.gov/News/Contracts/Contract/Article/3134553/</t>
-  </si>
-  <si>
-    <t>https://www.war.gov/News/Contracts/Contract/Article/3136011/</t>
-  </si>
-  <si>
-    <t>https://www.war.gov/News/Contracts/Contract/Article/3137139/</t>
-  </si>
-  <si>
-    <t>https://www.war.gov/News/Contracts/Contract/Article/3138645/</t>
-  </si>
-  <si>
-    <t>https://www.war.gov/News/Contracts/Contract/Article/3140102/</t>
-  </si>
-  <si>
-    <t>https://www.war.gov/News/Contracts/Contract/Article/3141819/</t>
+    <t>Raytheon Missiles and Defense, Tucson, Arizona, has been awarded a $972,184,161 non-competitive, firm-fixed-price incentive modification (P00022) to previously awarded contract FA8675-21-C-0034 for Advanced Medium Range Air-to-Air Missile (AMRAAM) Production Lot 36. The modification provides for the exercise of the pre-priced options for Lot 36 production of AMRAAM missiles, AMRAAM Telemetry System (ATS), initial and field spares, and other production engineering support hardware and activities.  Work will be performed in Tucson, Arizona, and is expected to be completed by Aug. 30, 2025. This contract involves Foreign Military Sales to Australia, Bahrain, Bulgaria, Canada, Denmark, Finland, Hungary, Italy, Japan, Korea, Netherlands, Norway, Qatar, Saudi Arabia, Singapore, Slovakia, Spain, Switzerland, and the United Kingdom, which accounts for 42% of the contract value.  Fiscal 2022 Air Force aircraft procurement funds in the amount of $671,030; fiscal 2020 Air Force missile procurement funds in the amount of $3,096,742; fiscal 2021 Air Force missile procurement funds in the amount of $28,583,539; fiscal 2022 Air Force missile procurement funds in the amount of $292,740,340; fiscal 2022 Air Force operation and maintenance funds in the amount of $2,593,695; fiscal 2021 Air Force research and development funds in the amount of $1,715,356; fiscal 2022 Air Force research and development funds in the amount of $3,867,005; fiscal 2020 Navy weapons procurement funds in the amount of $1,342,060; fiscal 2021 Navy weapons procurement funds in the amount of $150,511,034; fiscal 2022 Navy weapons procurement funds in the amount of $77,489,607; fiscal 2022 Navy research and development funds in the amount of $4,800,717; and Foreign Military Sales funds in the amount of $404,773,037 are being obligated at the time of award. Air Force Life Cycle Management Center, Air Dominance Division Contracting Office, Eglin Air Force Base, Florida, is the contracting activity.</t>
+  </si>
+  <si>
+    <t>R&amp;M Government Services Inc.,* Las Cruces, New Mexico, has been awarded an $8,956,528 indefinite-delivery/indefinite-quantity contract to procure A-10 Pod assemblies for the main landing gear. Work will be performed in Las Cruces, New Mexico, and is expected to be completed by July 25, 2024. This award is the result of a full and open competition with five proposals received. Consolidated Sustainment Activity Group Working Capital funds in the amount of $5,956,704.00 will be obligated at time of award. Air Force Life Cycle Management Center, Hill Air Force Base, Utah, is the contracting activity (FA8212-22-D-0012).</t>
+  </si>
+  <si>
+    <t>The Boeing Co., Huntsville, Alabama, is being awarded an indefinite-delivery/indefinite-quantity contract with a maximum dollar amount of $5,021,000,000. Under this new contract, the system integration, test, and readiness (SITR) contractor is responsible for overall Ground-Based Midcourse Defense (GMD) Element engineering, integration including physical and logical integration of the GMD Element and components and GMD integration with the Missile Defense System; and planning, and execution of all necessary testing to verify overall requirements compliance.  In addition, SITR is responsible for day-to-day systems operations and readiness, performs routine maintenance functions, performs analysis related to GMD Element health and availability, and executes failure/fault checklists, as appropriate. A task order in the amount of $506,670,786 is being issued at this time. The work will be performed primarily in Huntsville, Alabama. The ordering period is from Sept. 1, 2022, through Aug. 31, 2027. This contract was competitively procured via publication on the government-wide Point of Entry website with three proposals received. Fiscal 2022 research, development, test and evaluation funds in the amount of $4,548,306 are being obligated on this award. The Missile Defense Agency, Huntsville, Alabama, is the contracting activity (HQ0856-22-D-0002).</t>
+  </si>
+  <si>
+    <t>Lockheed Martin Rotary and Mission Systems, Moorestown, New Jersey, is being awarded a $11,874,739 sole-source, hybrid (firm-fixed-priced and cost-plus-incentive-fee) contract modification (P00041) under Aegis Ballistic Missile Defense Weapon Systems contract HQ085121C0002.  This modification increases the ceiling of Contract Line Item Number (CLIN) 0021 and establishes new CLINs 0042AN-0042BF to support lab upgrades to the Beowulf 780 lab.  Obligation in the amount of $11,874,739 using fiscal 2022 research, development, test and evaluation funds will occur at the time of award.  The work will be performed in Moorestown, New Jersey, with period of performance from time of award through Dec. 31, 2023.  The value of the contract increases from $633,007,609 by $11,874,739 to $644,882,348.  The Missile Defense Agency, Dahlgren, Virginia, is the contracting activity.</t>
+  </si>
+  <si>
+    <t>Sikorsky, a Lockheed Martin Co., Stratford, Connecticut, is awarded a $36,404,277 firm-fixed-price order (N0001922F2122) against a previously issued basic ordering agreement (N0001919G0029). This order procures spare parts and provides repair and maintenance support for the Lot 6 CH-53K low rate initial production configuration aircraft. Work will be performed in Stratford, Connecticut (24.21%); Windsor Locks, Connecticut (12.08%); Quebec, Canada (11.31%); Redmond, Washington (5.38%); Vancouver, Washington (4.70%); Cedar Rapids, Iowa (3.15%); Niles, Illinois (2.73%); Charlotte, North Carolina (2.64%); Sarasota, Florida (2.42%): Tucson, Arizona (2.28%); Chesterfield, Missouri (2.07%); Cary, North Carolina (1.86%); Westbury, New York (1.71%); Jackson, Mississippi (1.63%); Springfield, New Jersey (1.41%); Vergennes, Vermont (1.30%); Waltham, Massachusetts (1.25%); Bridgeport, West Virginia (1.24%); San Fernando, California (1.10%); and various locations within the continental U.S. (15.53%), and is expected to be completed in December 2025. Fiscal 2022 aircraft procurement (Navy) funds in the amount of $36,404,277 will be obligated at the time of award, none of which will expire at the end of the current fiscal year. The Naval Air Systems Command, Patuxent River, Maryland, is the contracting activity.</t>
+  </si>
+  <si>
+    <t>Kilgore Flares Co. LLC, doing business as Chemring Countermeasures, Toone, Tennessee (N00104-22-D-ZU01); and Armtec Countermeasures Co., Coachella, California (N00104-22-D-ZV01), are awarded a $225,000,000 firm-fixed-price, indefinite-delivery/indefinite-quantity, multiple award contract to manufacture of MJU-61A/B infrared flare countermeasures. This contract includes a five-year ordering period with no options. Work will be performed in Toone, Tennessee (60%); and Coachella, California (40%) for the first delivery order. Percentage for remainder of contract cannot be determined at this time. Work is expected to be completed by August 2027. Delivery orders will be awarded concurrently with the contracts. Procurement of ammunition (Air Force) funds in the amount of $9,789,120 will be obligated to Kilgore Flares Co. LLC under delivery order N00104-22-F-ZU01. Foreign Military Sales (FMS) funds (55%); and procurement of ammunition (Air Force) funds (45%) in the amount $5,924,640 will be obligated to Armtec Countermeasures Co. (N00104-22-F-ZV01). This effort combines purchases for Korea (34%); Denmark (14%); Japan (5%); Netherlands (1%); and Italy (1%) under the FMS program. Funds will not expire at the end of the current fiscal year. This was a fully competitive requirement, with two offers received. Naval Supply Systems Command Weapon Systems Support, Mechanicsburg, Pennsylvania, is the contracting activity.</t>
+  </si>
+  <si>
+    <t>Nan Inc., Honolulu, Hawaii, is awarded a $21,831,871 firm-fixed-price task order (N6247822F4397) under a previously awarded contract to repair Ammunition Wharf W2, Joint Base Pearl Harbor-Hickam, Hawaii. The work to be performed provides for wharf replacement with a reinforced concrete wharf on concrete piles built to current standards. The project will also include the reconstruction of wastewater and portable water utility systems, phone lines and grounding system for lightning protection. Utilities will be placed into a utility trench built into the wharf deck, and a permanent oil spill containment boom, safety ladders, life ring cabinets, fire alarm system and mooring hardware will be installed. Work will be performed at Oahu, Hawaii, and is expected to be completed by November 2023. Fiscal 2022 operations and maintenance (Navy) funds in the amount of $21,831,871 will be obligated at time of award, and will not expire at the end of the current fiscal year. This contract was competitively procured with four offers received. The Naval Facilities Engineering Systems Command, Hawaii, Joint Base Pearl Harbor-Hickam, Hawaii, is the contracting activity (N62478-20-D-4014).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Boeing Co., St. Louis, Missouri, is awarded a $12,353,619 cost-plus-fixed-fee contract to procure upgraded flight control computer operational flight program with automatic ground collision avoidance system capable software for the F/A-18C/D aircraft. Work will be performed in St. Louis, Missouri, and is expected to be completed in June 2024. Fiscal 2021 research, development, test and evaluation (Navy) funds in the amount of $12,353,619 will be obligated at the time of award, all of which will expire at the end of the current fiscal year. This contract was competitively procured via an electronic request for proposal with one offer was received. The Naval Air Systems Command, Patuxent River, Maryland, is the contracting activity (N0001922C0059).  </t>
+  </si>
+  <si>
+    <t>General Dynamics - Ordnance and Tactical Systems, Garland, Texas, was awarded a $20,864,545 modification (P00009) to contract W52P1J-18-C-0052 for MK82-1, MK82-6, MK84-6 and BDU-56/B bomb bodies. Bids were solicited via the internet with one received. Work locations and funding will be determined with each order, with an estimated completion date of Dec. 31, 2024. U.S. Army Contracting Command, Rock Island Arsenal, Illinois, is the contracting activity.</t>
+  </si>
+  <si>
+    <t>Raytheon Co., El Segundo, California, was awarded a $16,271,803 modification (P00003) to previously awarded, cost-plus-fixed-fee contract HR0011-21-C-0134 to exercise the Phase 2 Option for the Fast Event-based Neuromorphic Camera and Electronics (FENCE) program. The modification brings the total cumulative face value of the contract to $25,113,974 from $8,842,171. Work will be performed in Goleta, California (56%); El Segundo, California (16%); Cambridge, Massachusetts (13%): McKinney, Texas (10%); Tempe, Arizona (2%); Tewksbury, Massachusetts (2%); and New York, New York (1%), with an expected completion date of June 2024. Fiscal 2022 research, development, test and evaluation funds in the amount of $6,350,000 are being obligated at time of award. The Defense Advanced Research Projects Agency, Arlington, Virginia, is the contracting activity.</t>
+  </si>
+  <si>
+    <t>Northrop Grumman Systems Corp., Linthicum Heights, Maryland, was awarded an $8,706,668 modification (P00003) to previously awarded cost-plus-fixed-fee contract HR0011-21-C-0132 to exercise the Phase 2 Option for the Fast Event-based Neuromorphic Camera and Electronics (FENCE) program. The modification brings the total cumulative face value of the contract to $14,336,501 from $5,629,833. Work will be performed in Linthicum Heights, Maryland (75%); Baltimore, Maryland (13%); San Diego, California (3%); and Stanford, California (9%), with an expected completion date of June 2024. Fiscal 2022 research, development, test and evaluation funds in the amount of $3,300,000 are being obligated at time of award. The Defense Advanced Research Projects Agency, Arlington, Virginia, is the contracting activity.</t>
+  </si>
+  <si>
+    <t>Moog Inc., Blacksburg, Virginia, has been awarded a maximum $10,762,830 firm-fixed-price contract for M1A2 Abrams tank ring assembly electrical parts. This was a sole-source acquisition using justification 10 U.S. Code 2304 (c)(1), as stated in Federal Acquisition Regulation 6.302-1. This is a one-year base contract with one one-year option period. The delivery completion date is April 27, 2026. Using military service is Army. Type of appropriation is fiscal 2022 Army working capital funds. The contracting activity is the Defense Logistics Agency Land and Maritime, Warren, Michigan (SPRDL1-22-C-0053).</t>
+  </si>
+  <si>
+    <t>The Boeing Co., Defense, Space &amp; Security, Seattle, Washington, has been awarded a $2,214,952,163 modification (P00215) to contract FA8625-11-C-6600 for KC-46A Air Force Production Lot 8 aircraft, subscriptions and licenses. The contract modification provides for the exercise of an option for an additional quantity of 15 KC-46A aircraft, data, subscriptions and licenses being produced under the basic contract. Work will be performed in Seattle, Washington, and is expected to be completed by Nov. 30, 2025. Fiscal 2021 aircraft procurement funds in the amount of $147,540,041; and fiscal 2022 aircraft procurement funds in the amount of $2,065,560,574 are being obligated at the time of award. Air Force Life Cycle Management Center, Wright-Patterson Air Force Base, Ohio, is the contracting activity.</t>
+  </si>
+  <si>
+    <t>The Boeing Co., Defense, Space &amp; Security, Seattle, Washington, has been awarded a not-to-exceed $927,492,124 undefinitized contract action for four KC-46A aircraft for Israel. This contract is also issued for the non-recurring engineering design and test for the Remote Vision System 2.0 and the Air Refueling Operator Station 2.0 mission equipment and installation, pre-delivery integrated logistics support, and technical publications. Work will be performed in Seattle, Washington, and is expected to be completed by Dec. 31, 2026. This contract involves 100 percent Foreign Military Sales to Israel and is the result of a sole-source acquisition. Foreign Military Sales funds in the amount of $886,242,124 are being obligated at the time of award. Air Force Life Cycle Management Center, Wright-Patterson Air Force Base, Ohio, is the contracting activity. (FA8609-19-D-0007/FA8609-22-F-0001)</t>
+  </si>
+  <si>
+    <t>Iron Eagle X, Tampa, Florida, was awarded a contract (H92415-22-90004) with a maximum ceiling of $430,000,000 and a 10-year ordering period for a range of activities, including further research and development, products, services, and production for further technical development and applications derived from previous U.S. Special Operations Command (USSOCOM) tools and extending solutions to meet USSOCOM software solution requirements for challenges associated with a host of operational workflows and interoperability among data sets and applications in the furtherance of the program. Fiscal 2022 operations and maintenance; and fiscal 2022 research, development, test and evaluation funding in the amount of $3,877,823 are being obligated at the time of award. This contract is an Other Transaction Agreement authorized under 10 U.S. Code §4022(f). USSOCOM, MacDill Air Force Base, Florida, is the contracting activity.</t>
+  </si>
+  <si>
+    <t>Lockheed Martin Missiles &amp; Fire Control, Orlando, Florida, was awarded a $121,567,721 firm-fixed-price contract for the purchase of Modernized Target Acquisition Designation Sight/Pilot Night Vision Systems components and hardware for the Apache attack helicopter. Bids were solicited via the internet with one received. Work locations and funding will be determined with each order, with an estimated completion date of March 31, 2022. U.S. Army Contracting Command, Redstone Arsenal, Alabama, is the contracting activity (W58RGZ-22-F-0381).</t>
+  </si>
+  <si>
+    <t>General Dynamics - Ordnance and Tactical Systems, Garland, Texas, was awarded a $93,224,681 firm-fixed-price contract for tritonal bomb components. Bids were solicited via the internet with one received. Work locations and funding will be determined with each order, with an estimated completion date of Dec. 31, 2024. U.S. Army Contracting Command, Rock Island Arsenal, Illinois, is the contracting activity (W52P1J-22-F-0335).</t>
+  </si>
+  <si>
+    <t>General Electric Co., Lynn, Massachusetts, was awarded a $68,647,137 hybrid (cost-plus-award-fee, cost-plus-fixed-fee, firm-fixed-price) contract to provide support for the T700 engine. Bids were solicited via the internet with one received. Work locations and funding will be determined with each order, with an estimated completion date of Aug. 29, 2027. U.S. Army Contracting Command, Redstone Arsenal, Alabama, is the contracting activity (W58RGZ-22-D-0045).</t>
+  </si>
+  <si>
+    <t>General Dynamics Land Systems, Sterling Heights, Michigan, was awarded a $9,517,083 modification (P00017) to contract W56HZV-22-C-0012 for Abrams Systems technical support. Work will be performed in Sterling Heights, Michigan, with an estimated completion date of Aug. 31, 2024. Fiscal 2010 Foreign Military Sales (Poland) funds in the amount of $9,517,083 were obligated at the time of the award. U.S. Army Contracting Command, Detroit Arsenal, Michigan, is the contracting activity.</t>
+  </si>
+  <si>
+    <t>Lockheed Martin Rotary and Mission Systems, Moorestown, New Jersey, is being awarded a $50,681,223 modification (P00026) to previously awarded contract HQ085121C0001 under Foreign Military Sales Case JA-P-NCO.  The total value of the contract is increased from $364,367,039 to $415,048,262.  Under this modification, the contractor will continue performance on existing contract line item numbers to provide timely purchasing of required parts and continued labor in the areas of computer program development, program management, engineering, logistics, and radar integration. The work will be performed in Moorestown, New Jersey.  The period of performance for this action is from Sept. 1, 2022, through Nov. 30, 2022. Case JA-P-NCO funds in the amount of $50,681,223 are being obligated at the time of award.  The Missile Defense Agency, Dahlgren, Virginia, is the contracting activity.</t>
+  </si>
+  <si>
+    <t>CTC Enterprise Ventures Corp., Johnstown, Pennsylvania, is awarded $18,733,225 for ceiling-priced delivery order N00383-22-F-ZB0A under previously awarded basic ordering agreement N00383-22-G-ZB01 for the acquisition of nine spare hydraulic winches used on the H-60 aircraft. All work will be performed in Johnstown, Pennsylvania, and is expected to be completed by August 2025, with no option periods. Fiscal 2022 working capital (Navy) funds in the amount of $9,179,280 will be obligated at the time of award, and will not expire at the end of the current fiscal year. One company was solicited for this sole-source requirement pursuant to the authority set forth in 10 U.S. Code 2304 (c)(1), with one offer received. Naval Supply Systems Command Weapon Systems Support, Philadelphia, Pennsylvania, is the contracting activity.</t>
+  </si>
+  <si>
+    <t>Sikorsky Aircraft Corp., a Lockheed Martin Co., Stratford, Connecticut, is awarded a $39,920,367 firm-fixed-price modification (P00001) to an order (N0001922F2491) against a previously issued basic ordering agreement (N0001919G0029).  This modification adds scope to provide production and installation of a VH-92A Flight Training Device (FTD) and updates to a previously delivered VH-92A FTD for the Marine Corps. Work will be performed in Binghamton, New York (49%); Orlando, Florida (17%); Stratford, Connecticut (13%); Sterling, Virginia (10%); Quantico, Virginia (8%); Salt Lake City, Utah (1.5%); and various locations within the continental U.S. (1.5%), and is expected to be completed in March 2024. Fiscal 2022 aircraft procurement (Navy) funds in the amount of $8,869,507; and fiscal 2020 aircraft procurement (Navy) funds in the amount of $31,050,860 will be obligated at the time of award, $31,050,860 of which will expire at the end of the current fiscal year. The Naval Air Systems Command, Patuxent River, Maryland, is the contracting activity.</t>
+  </si>
+  <si>
+    <t>Rockwell Collins Inc., Cedar Rapids, Iowa, is awarded a $19,652,381 firm-fixed-price, indefinite-delivery/indefinite-quantity contract. This contract procures 76 aircraft direction finders, 152 radio turner panels and 228 high frequency radios, as well as technical data and data support for P-8A aircraft production Lots 12, 13 and 14. Work will be performed in Cedar Rapids, Iowa (95%); and Thiais Cedex, France (5%), and is expected to be completed in August 2025. No funds will be obligated at the time of award; funds will be obligated on individual orders as they are issued. This contract was not competitively procured pursuant to Defense Federal Acquisition Regulation 6.302-4. The Naval Air Warfare Center Aircraft Division, Lakehurst, New Jersey, is the contracting activity (N6833522D0035).</t>
+  </si>
+  <si>
+    <t>Northrop Grumman Systems Corp., Huntsville, Alabama, was awarded a $24,053,409 modification (PZ0026) to contract W31P4Q-19-C-0003 for Integrated Battle Command System production hardware and software. Work will be performed in Huntsville, Alabama, with an estimated completion date of Dec. 31, 2025. Fiscal 2010 Foreign Military Sales (Poland) funds in the amount of $24,053,409 were obligated at the time of the award. U.S. Army Contracting Command, Redstone Arsenal, Alabama, is the contracting activity.</t>
+  </si>
+  <si>
+    <t>https://www.war.gov/News/Contracts/Contract/Article/3144699/</t>
+  </si>
+  <si>
+    <t>https://www.war.gov/News/Contracts/Contract/Article/3146093/</t>
+  </si>
+  <si>
+    <t>https://www.war.gov/News/Contracts/Contract/Article/3147781/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -194,11 +170,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -226,17 +197,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Hyperlink 2" xfId="5" xr:uid="{00F41B89-8AB3-4DEC-B344-7FC2A8535877}"/>
@@ -579,18 +545,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C32A2EF0-6AE5-4C15-9CF0-4CEB2FFB30C8}">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.8984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.69921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.09765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.9140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -601,334 +567,334 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="3">
-        <v>44792</v>
+        <v>27</v>
+      </c>
+      <c r="B2" s="1">
+        <v>44803</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="3">
-        <v>44792</v>
+        <v>27</v>
+      </c>
+      <c r="B3" s="1">
+        <v>44803</v>
       </c>
       <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="1">
+        <v>44803</v>
+      </c>
+      <c r="C4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="3">
-        <v>44792</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="1">
+        <v>44803</v>
+      </c>
+      <c r="C5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="3">
-        <v>44792</v>
-      </c>
-      <c r="C5" s="1" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="1">
+        <v>44803</v>
+      </c>
+      <c r="C6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="3">
-        <v>44792</v>
-      </c>
-      <c r="C6" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="1">
+        <v>44803</v>
+      </c>
+      <c r="C7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="3">
-        <v>44795</v>
-      </c>
-      <c r="C7" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="1">
+        <v>44803</v>
+      </c>
+      <c r="C8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="3">
-        <v>44795</v>
-      </c>
-      <c r="C8" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="1">
+        <v>44803</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="1">
+        <v>44803</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="1">
+        <v>44803</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="1">
+        <v>44803</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="1">
+        <v>44803</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="1">
+        <v>44803</v>
+      </c>
+      <c r="C14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="3">
-        <v>44796</v>
-      </c>
-      <c r="C9" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="1">
+        <v>44803</v>
+      </c>
+      <c r="C15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="3">
-        <v>44796</v>
-      </c>
-      <c r="C10" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="1">
+        <v>44803</v>
+      </c>
+      <c r="C16" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="3">
-        <v>44796</v>
-      </c>
-      <c r="C11" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="1">
+        <v>44803</v>
+      </c>
+      <c r="C17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="3">
-        <v>44796</v>
-      </c>
-      <c r="C12" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="1">
+        <v>44803</v>
+      </c>
+      <c r="C18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="3">
-        <v>44796</v>
-      </c>
-      <c r="C13" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="1">
+        <v>44803</v>
+      </c>
+      <c r="C19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="3">
-        <v>44797</v>
-      </c>
-      <c r="C14" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="1">
+        <v>44804</v>
+      </c>
+      <c r="C20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="3">
-        <v>44797</v>
-      </c>
-      <c r="C15" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="1">
+        <v>44804</v>
+      </c>
+      <c r="C21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="3">
-        <v>44797</v>
-      </c>
-      <c r="C16" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="1">
+        <v>44804</v>
+      </c>
+      <c r="C22" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="3">
-        <v>44797</v>
-      </c>
-      <c r="C17" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="1">
+        <v>44804</v>
+      </c>
+      <c r="C23" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="3">
-        <v>44797</v>
-      </c>
-      <c r="C18" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="1">
+        <v>44804</v>
+      </c>
+      <c r="C24" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" s="3">
-        <v>44798</v>
-      </c>
-      <c r="C19" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="1">
+        <v>44804</v>
+      </c>
+      <c r="C25" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="3">
-        <v>44798</v>
-      </c>
-      <c r="C20" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="1">
+        <v>44804</v>
+      </c>
+      <c r="C26" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="3">
-        <v>44798</v>
-      </c>
-      <c r="C21" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="1">
+        <v>44804</v>
+      </c>
+      <c r="C27" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="3">
-        <v>44799</v>
-      </c>
-      <c r="C22" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="1">
+        <v>44804</v>
+      </c>
+      <c r="C28" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="3">
-        <v>44799</v>
-      </c>
-      <c r="C23" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="1">
+        <v>44805</v>
+      </c>
+      <c r="C29" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" s="3">
-        <v>44799</v>
-      </c>
-      <c r="C24" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1">
+        <v>44805</v>
+      </c>
+      <c r="C30" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="3">
-        <v>44799</v>
-      </c>
-      <c r="C25" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1">
+        <v>44805</v>
+      </c>
+      <c r="C31" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" s="3">
-        <v>44799</v>
-      </c>
-      <c r="C26" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>38</v>
-      </c>
-      <c r="B27" s="3">
-        <v>44799</v>
-      </c>
-      <c r="C27" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>38</v>
-      </c>
-      <c r="B28" s="3">
-        <v>44799</v>
-      </c>
-      <c r="C28" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="3">
-        <v>44799</v>
-      </c>
-      <c r="C29" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30" s="3">
-        <v>44799</v>
-      </c>
-      <c r="C30" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>38</v>
-      </c>
-      <c r="B31" s="3">
-        <v>44799</v>
-      </c>
-      <c r="C31" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
